--- a/用例数据/沪A/定向可转债/转股/测试结果.xlsx
+++ b/用例数据/沪A/定向可转债/转股/测试结果.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\source\用例数据\沪A\定向可转债\转股\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="25860" windowHeight="12215" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25860" windowHeight="12210" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="stklist" sheetId="1" r:id="rId1"/>
@@ -12,15 +17,15 @@
     <sheet name="exchangerights" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">tradinglog2020!$A$1:$EE$9</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">exchangerights!$A$1:$BM$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">tradinglog2020!$A$1:$EC$9</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1881" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2093" uniqueCount="353">
   <si>
     <t>EXCHID</t>
   </si>
@@ -292,15 +297,9 @@
     <t>0.00000000</t>
   </si>
   <si>
-    <t>1000000000.000</t>
-  </si>
-  <si>
     <t>0.000</t>
   </si>
   <si>
-    <t>10000000</t>
-  </si>
-  <si>
     <t>00</t>
   </si>
   <si>
@@ -316,9 +315,6 @@
     <t>0.00</t>
   </si>
   <si>
-    <t>qwgrp0</t>
-  </si>
-  <si>
     <t>1.000000</t>
   </si>
   <si>
@@ -340,12 +336,6 @@
     <t>赤峰黄金</t>
   </si>
   <si>
-    <t>1251000.000</t>
-  </si>
-  <si>
-    <t>100000</t>
-  </si>
-  <si>
     <t>000001</t>
   </si>
   <si>
@@ -355,9 +345,6 @@
     <t>宁波高发</t>
   </si>
   <si>
-    <t>1776000.000</t>
-  </si>
-  <si>
     <t>SERIALNUM</t>
   </si>
   <si>
@@ -730,15 +717,9 @@
     <t>SECONDOTHERFEE</t>
   </si>
   <si>
-    <t>30650055</t>
-  </si>
-  <si>
     <t>005_003_006</t>
   </si>
   <si>
-    <t>20201230162420</t>
-  </si>
-  <si>
     <t>-1</t>
   </si>
   <si>
@@ -754,9 +735,6 @@
     <t>20201230000000</t>
   </si>
   <si>
-    <t>999994000.000</t>
-  </si>
-  <si>
     <t>A9</t>
   </si>
   <si>
@@ -769,9 +747,6 @@
     <t>0.0000</t>
   </si>
   <si>
-    <t>99999</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -781,9 +756,6 @@
     <t>N</t>
   </si>
   <si>
-    <t>000006407823</t>
-  </si>
-  <si>
     <t>NONDVP</t>
   </si>
   <si>
@@ -796,39 +768,12 @@
     <t>1.0000000000</t>
   </si>
   <si>
-    <t>30650058</t>
-  </si>
-  <si>
-    <t>999994002.750</t>
-  </si>
-  <si>
-    <t>000006407826</t>
-  </si>
-  <si>
-    <t>30650054</t>
-  </si>
-  <si>
     <t>005_004_004</t>
   </si>
   <si>
-    <t>8906709.430</t>
-  </si>
-  <si>
     <t>22759</t>
   </si>
   <si>
-    <t>000006407822</t>
-  </si>
-  <si>
-    <t>30650052</t>
-  </si>
-  <si>
-    <t>000006407820</t>
-  </si>
-  <si>
-    <t>30650053</t>
-  </si>
-  <si>
     <t>5600</t>
   </si>
   <si>
@@ -838,18 +783,6 @@
     <t>债转股债券收付</t>
   </si>
   <si>
-    <t>000006407821</t>
-  </si>
-  <si>
-    <t>30650057</t>
-  </si>
-  <si>
-    <t>000006407825</t>
-  </si>
-  <si>
-    <t>30650056</t>
-  </si>
-  <si>
     <t>005_005_007</t>
   </si>
   <si>
@@ -862,18 +795,6 @@
     <t>QYK_JSMX 债转股余额兑付190032</t>
   </si>
   <si>
-    <t>000006407824</t>
-  </si>
-  <si>
-    <t>30650059</t>
-  </si>
-  <si>
-    <t>999994005.500</t>
-  </si>
-  <si>
-    <t>000006407827</t>
-  </si>
-  <si>
     <t>OCCURAMT</t>
   </si>
   <si>
@@ -1052,19 +973,124 @@
   </si>
   <si>
     <t>30650051</t>
+  </si>
+  <si>
+    <t>999440000.0000</t>
+  </si>
+  <si>
+    <t>100.0000</t>
+  </si>
+  <si>
+    <t>966284.9100</t>
+  </si>
+  <si>
+    <t>12.5100</t>
+  </si>
+  <si>
+    <t>17.76000000</t>
+  </si>
+  <si>
+    <t>1371800.1600</t>
+  </si>
+  <si>
+    <t>17.7600</t>
+  </si>
+  <si>
+    <t>284715.0900</t>
+  </si>
+  <si>
+    <t>404199.8400</t>
+  </si>
+  <si>
+    <t>-1371800.160</t>
+  </si>
+  <si>
+    <t>ADJUSTEDFEEFLAG</t>
+  </si>
+  <si>
+    <t>OTHERFEE4</t>
+  </si>
+  <si>
+    <t>30052574</t>
+  </si>
+  <si>
+    <t>20221007203501</t>
+  </si>
+  <si>
+    <t>20221007000000</t>
+  </si>
+  <si>
+    <t>999736737.780</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>000006907504</t>
+  </si>
+  <si>
+    <t>30052581</t>
+  </si>
+  <si>
+    <t>999736740.530</t>
+  </si>
+  <si>
+    <t>000006907511</t>
+  </si>
+  <si>
+    <t>20221010000000</t>
+  </si>
+  <si>
+    <t>011</t>
+  </si>
+  <si>
+    <t>30052577</t>
+  </si>
+  <si>
+    <t>10049000.000</t>
+  </si>
+  <si>
+    <t>000006907507</t>
+  </si>
+  <si>
+    <t>30052578</t>
+  </si>
+  <si>
+    <t>000006907508</t>
+  </si>
+  <si>
+    <t>30052573</t>
+  </si>
+  <si>
+    <t>000006907503</t>
+  </si>
+  <si>
+    <t>30052572</t>
+  </si>
+  <si>
+    <t>000006907502</t>
+  </si>
+  <si>
+    <t>30052582</t>
+  </si>
+  <si>
+    <t>999736743.280</t>
+  </si>
+  <si>
+    <t>000006907512</t>
+  </si>
+  <si>
+    <t>30052575</t>
+  </si>
+  <si>
+    <t>000006907505</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1073,352 +1099,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1426,311 +1121,25 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2017,96 +1426,96 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:CE20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:CH20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="7.66666666666667" customWidth="1"/>
-    <col min="2" max="3" width="14.1111111111111" customWidth="1"/>
-    <col min="4" max="4" width="11.8888888888889" customWidth="1"/>
-    <col min="5" max="5" width="14.1111111111111" customWidth="1"/>
-    <col min="6" max="6" width="11.8888888888889" customWidth="1"/>
-    <col min="7" max="7" width="7.66666666666667" customWidth="1"/>
-    <col min="8" max="8" width="9.66666666666667" customWidth="1"/>
-    <col min="9" max="9" width="20.8888888888889" customWidth="1"/>
+    <col min="1" max="1" width="7.625" customWidth="1"/>
+    <col min="2" max="3" width="14.125" customWidth="1"/>
+    <col min="4" max="4" width="11.875" customWidth="1"/>
+    <col min="5" max="5" width="14.125" customWidth="1"/>
+    <col min="6" max="6" width="11.875" customWidth="1"/>
+    <col min="7" max="7" width="7.625" customWidth="1"/>
+    <col min="8" max="8" width="9.625" customWidth="1"/>
+    <col min="9" max="9" width="20.875" customWidth="1"/>
     <col min="10" max="10" width="13" customWidth="1"/>
-    <col min="11" max="11" width="14.1111111111111" customWidth="1"/>
-    <col min="12" max="13" width="16.4444444444444" customWidth="1"/>
-    <col min="14" max="14" width="10.7777777777778" customWidth="1"/>
-    <col min="15" max="15" width="11.8888888888889" customWidth="1"/>
-    <col min="16" max="17" width="15.2222222222222" customWidth="1"/>
-    <col min="18" max="18" width="14.1111111111111" customWidth="1"/>
-    <col min="19" max="19" width="17.5555555555556" customWidth="1"/>
-    <col min="20" max="20" width="14.1111111111111" customWidth="1"/>
-    <col min="21" max="21" width="16.4444444444444" customWidth="1"/>
-    <col min="22" max="22" width="11.8888888888889" customWidth="1"/>
-    <col min="23" max="23" width="8.66666666666667" customWidth="1"/>
-    <col min="24" max="24" width="10.7777777777778" customWidth="1"/>
-    <col min="25" max="25" width="7.66666666666667" customWidth="1"/>
-    <col min="26" max="26" width="17.5555555555556" customWidth="1"/>
-    <col min="27" max="27" width="9.66666666666667" customWidth="1"/>
+    <col min="11" max="11" width="14.125" customWidth="1"/>
+    <col min="12" max="13" width="16.5" customWidth="1"/>
+    <col min="14" max="14" width="10.75" customWidth="1"/>
+    <col min="15" max="15" width="11.875" customWidth="1"/>
+    <col min="16" max="17" width="15.25" customWidth="1"/>
+    <col min="18" max="18" width="14.125" customWidth="1"/>
+    <col min="19" max="19" width="17.5" customWidth="1"/>
+    <col min="20" max="20" width="14.125" customWidth="1"/>
+    <col min="21" max="21" width="16.5" customWidth="1"/>
+    <col min="22" max="22" width="11.875" customWidth="1"/>
+    <col min="23" max="23" width="8.625" customWidth="1"/>
+    <col min="24" max="24" width="10.75" customWidth="1"/>
+    <col min="25" max="25" width="7.625" customWidth="1"/>
+    <col min="26" max="26" width="17.5" customWidth="1"/>
+    <col min="27" max="27" width="9.625" customWidth="1"/>
     <col min="28" max="29" width="13" customWidth="1"/>
-    <col min="30" max="30" width="11.8888888888889" customWidth="1"/>
-    <col min="31" max="31" width="15.2222222222222" customWidth="1"/>
-    <col min="32" max="32" width="10.7777777777778" customWidth="1"/>
-    <col min="33" max="33" width="16.4444444444444" customWidth="1"/>
-    <col min="34" max="34" width="15.2222222222222" customWidth="1"/>
+    <col min="30" max="30" width="11.875" customWidth="1"/>
+    <col min="31" max="31" width="15.25" customWidth="1"/>
+    <col min="32" max="32" width="10.75" customWidth="1"/>
+    <col min="33" max="33" width="16.5" customWidth="1"/>
+    <col min="34" max="34" width="15.25" customWidth="1"/>
     <col min="35" max="35" width="22" customWidth="1"/>
-    <col min="36" max="36" width="11.8888888888889" customWidth="1"/>
-    <col min="37" max="37" width="20.8888888888889" customWidth="1"/>
-    <col min="38" max="38" width="24.2222222222222" customWidth="1"/>
-    <col min="39" max="39" width="23.1111111111111" customWidth="1"/>
+    <col min="36" max="36" width="11.875" customWidth="1"/>
+    <col min="37" max="37" width="20.875" customWidth="1"/>
+    <col min="38" max="38" width="24.25" customWidth="1"/>
+    <col min="39" max="39" width="23.125" customWidth="1"/>
     <col min="40" max="41" width="13" customWidth="1"/>
-    <col min="42" max="42" width="14.1111111111111" customWidth="1"/>
+    <col min="42" max="42" width="14.125" customWidth="1"/>
     <col min="43" max="43" width="13" customWidth="1"/>
-    <col min="44" max="45" width="14.1111111111111" customWidth="1"/>
-    <col min="46" max="47" width="15.2222222222222" customWidth="1"/>
+    <col min="44" max="45" width="14.125" customWidth="1"/>
+    <col min="46" max="47" width="15.25" customWidth="1"/>
     <col min="48" max="49" width="13" customWidth="1"/>
-    <col min="50" max="50" width="14.1111111111111" customWidth="1"/>
-    <col min="51" max="51" width="16.4444444444444" customWidth="1"/>
-    <col min="52" max="52" width="23.1111111111111" customWidth="1"/>
-    <col min="53" max="53" width="19.7777777777778" customWidth="1"/>
-    <col min="54" max="54" width="23.1111111111111" customWidth="1"/>
-    <col min="55" max="55" width="15.2222222222222" customWidth="1"/>
-    <col min="56" max="56" width="18.6666666666667" customWidth="1"/>
-    <col min="57" max="57" width="17.5555555555556" customWidth="1"/>
-    <col min="58" max="59" width="16.4444444444444" customWidth="1"/>
-    <col min="60" max="61" width="17.5555555555556" customWidth="1"/>
-    <col min="62" max="62" width="16.4444444444444" customWidth="1"/>
-    <col min="63" max="63" width="17.5555555555556" customWidth="1"/>
-    <col min="64" max="64" width="18.6666666666667" customWidth="1"/>
-    <col min="65" max="65" width="25.4444444444444" customWidth="1"/>
-    <col min="66" max="66" width="27.6666666666667" customWidth="1"/>
-    <col min="67" max="67" width="20.8888888888889" customWidth="1"/>
-    <col min="68" max="68" width="16.4444444444444" customWidth="1"/>
-    <col min="69" max="69" width="23.1111111111111" customWidth="1"/>
-    <col min="70" max="70" width="9.66666666666667" customWidth="1"/>
-    <col min="71" max="71" width="23.1111111111111" customWidth="1"/>
-    <col min="72" max="72" width="18.6666666666667" customWidth="1"/>
-    <col min="73" max="73" width="24.2222222222222" customWidth="1"/>
-    <col min="74" max="74" width="19.7777777777778" customWidth="1"/>
-    <col min="75" max="75" width="14.1111111111111" customWidth="1"/>
-    <col min="76" max="76" width="17.5555555555556" customWidth="1"/>
-    <col min="77" max="77" width="15.2222222222222" customWidth="1"/>
-    <col min="78" max="78" width="16.4444444444444" customWidth="1"/>
-    <col min="79" max="79" width="18.6666666666667" customWidth="1"/>
-    <col min="80" max="80" width="19.7777777777778" customWidth="1"/>
-    <col min="81" max="81" width="26.5555555555556" customWidth="1"/>
-    <col min="82" max="82" width="14.1111111111111" customWidth="1"/>
+    <col min="50" max="50" width="14.125" customWidth="1"/>
+    <col min="51" max="51" width="16.5" customWidth="1"/>
+    <col min="52" max="52" width="23.125" customWidth="1"/>
+    <col min="53" max="53" width="19.75" customWidth="1"/>
+    <col min="54" max="54" width="23.125" customWidth="1"/>
+    <col min="55" max="55" width="15.25" customWidth="1"/>
+    <col min="56" max="56" width="18.625" customWidth="1"/>
+    <col min="57" max="57" width="17.5" customWidth="1"/>
+    <col min="58" max="59" width="16.5" customWidth="1"/>
+    <col min="60" max="61" width="17.5" customWidth="1"/>
+    <col min="62" max="62" width="16.5" customWidth="1"/>
+    <col min="63" max="63" width="17.5" customWidth="1"/>
+    <col min="64" max="64" width="18.625" customWidth="1"/>
+    <col min="65" max="65" width="25.5" customWidth="1"/>
+    <col min="66" max="66" width="27.625" customWidth="1"/>
+    <col min="67" max="67" width="20.875" customWidth="1"/>
+    <col min="68" max="68" width="16.5" customWidth="1"/>
+    <col min="69" max="69" width="23.125" customWidth="1"/>
+    <col min="70" max="70" width="9.625" customWidth="1"/>
+    <col min="71" max="71" width="23.125" customWidth="1"/>
+    <col min="72" max="72" width="18.625" customWidth="1"/>
+    <col min="73" max="73" width="24.25" customWidth="1"/>
+    <col min="74" max="74" width="19.75" customWidth="1"/>
+    <col min="75" max="75" width="14.125" customWidth="1"/>
+    <col min="76" max="76" width="17.5" customWidth="1"/>
+    <col min="77" max="77" width="15.25" customWidth="1"/>
+    <col min="78" max="78" width="16.5" customWidth="1"/>
+    <col min="79" max="79" width="18.625" customWidth="1"/>
+    <col min="80" max="80" width="19.75" customWidth="1"/>
+    <col min="81" max="81" width="26.5" customWidth="1"/>
+    <col min="82" max="82" width="14.125" customWidth="1"/>
     <col min="83" max="83" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:83">
+    <row r="1" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2357,7 +1766,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:83">
+    <row r="2" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>83</v>
       </c>
@@ -2377,112 +1786,112 @@
         <v>85</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>83</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>83</v>
+        <v>250</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>89</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>90</v>
+        <v>316</v>
       </c>
       <c r="M2" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="V2" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="O2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="V2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="Z2" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AK2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AL2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AM2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AN2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AO2" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="Y2" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AE2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AF2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AG2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AH2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AI2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AJ2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AK2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AL2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AM2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AN2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AO2" s="1" t="s">
-        <v>97</v>
-      </c>
       <c r="AP2" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="AQ2" s="1" t="s">
         <v>83</v>
@@ -2500,7 +1909,7 @@
         <v>83</v>
       </c>
       <c r="AV2" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AW2" s="1" t="s">
         <v>83</v>
@@ -2530,22 +1939,22 @@
         <v>83</v>
       </c>
       <c r="BF2" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BG2" s="1" t="s">
         <v>83</v>
       </c>
       <c r="BH2" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BI2" s="1" t="s">
         <v>83</v>
       </c>
       <c r="BJ2" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BK2" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BL2" s="1" t="s">
         <v>83</v>
@@ -2560,13 +1969,13 @@
         <v>89</v>
       </c>
       <c r="BP2" s="1" t="s">
-        <v>91</v>
+        <v>316</v>
       </c>
       <c r="BQ2" s="1" t="s">
-        <v>91</v>
+        <v>254</v>
       </c>
       <c r="BR2" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="BS2" s="1" t="s">
         <v>83</v>
@@ -2607,8 +2016,17 @@
       <c r="CE2" s="1" t="s">
         <v>83</v>
       </c>
+      <c r="CF2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CH2" s="1" t="s">
+        <v>83</v>
+      </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:83">
+    <row r="3" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>83</v>
       </c>
@@ -2628,112 +2046,112 @@
         <v>85</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>83</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>83</v>
+        <v>250</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>89</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>90</v>
+        <v>316</v>
       </c>
       <c r="M3" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="V3" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="W3" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="O3" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="V3" s="1" t="s">
+      <c r="X3" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="W3" s="1" t="s">
+      <c r="Y3" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="X3" s="1" t="s">
+      <c r="Z3" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AI3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AJ3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AK3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AL3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AM3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AN3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AO3" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="Y3" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="Z3" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AA3" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AB3" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AC3" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AD3" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AE3" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AF3" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AG3" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AH3" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AI3" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AJ3" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AK3" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AL3" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AM3" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AN3" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AO3" s="1" t="s">
-        <v>97</v>
-      </c>
       <c r="AP3" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="AQ3" s="1" t="s">
         <v>83</v>
@@ -2751,7 +2169,7 @@
         <v>83</v>
       </c>
       <c r="AV3" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AW3" s="1" t="s">
         <v>83</v>
@@ -2781,22 +2199,22 @@
         <v>83</v>
       </c>
       <c r="BF3" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BG3" s="1" t="s">
         <v>83</v>
       </c>
       <c r="BH3" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BI3" s="1" t="s">
         <v>83</v>
       </c>
       <c r="BJ3" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BK3" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BL3" s="1" t="s">
         <v>83</v>
@@ -2811,13 +2229,13 @@
         <v>89</v>
       </c>
       <c r="BP3" s="1" t="s">
-        <v>91</v>
+        <v>316</v>
       </c>
       <c r="BQ3" s="1" t="s">
-        <v>91</v>
+        <v>254</v>
       </c>
       <c r="BR3" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="BS3" s="1" t="s">
         <v>83</v>
@@ -2858,133 +2276,142 @@
       <c r="CE3" s="1" t="s">
         <v>83</v>
       </c>
+      <c r="CF3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CH3" s="1" t="s">
+        <v>83</v>
+      </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:83">
+    <row r="4" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>86</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>83</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>83</v>
+        <v>234</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>89</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>106</v>
+        <v>318</v>
       </c>
       <c r="M4" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="V4" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="N4" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="T4" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="U4" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="V4" s="1" t="s">
+      <c r="W4" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="W4" s="1" t="s">
+      <c r="X4" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="AB4" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC4" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AD4" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AE4" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AF4" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG4" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH4" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AI4" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AJ4" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AK4" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AL4" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AM4" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AN4" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AO4" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="X4" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="Y4" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="Z4" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AA4" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AB4" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AC4" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AD4" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AE4" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AF4" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AG4" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AH4" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AI4" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AJ4" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AK4" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AL4" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AM4" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AN4" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AO4" s="1" t="s">
-        <v>97</v>
-      </c>
       <c r="AP4" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="AQ4" s="1" t="s">
         <v>83</v>
@@ -3002,7 +2429,7 @@
         <v>83</v>
       </c>
       <c r="AV4" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AW4" s="1" t="s">
         <v>83</v>
@@ -3032,22 +2459,22 @@
         <v>83</v>
       </c>
       <c r="BF4" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BG4" s="1" t="s">
         <v>83</v>
       </c>
       <c r="BH4" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BI4" s="1" t="s">
         <v>83</v>
       </c>
       <c r="BJ4" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BK4" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BL4" s="1" t="s">
         <v>83</v>
@@ -3062,13 +2489,13 @@
         <v>89</v>
       </c>
       <c r="BP4" s="1" t="s">
-        <v>91</v>
+        <v>318</v>
       </c>
       <c r="BQ4" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BR4" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="BS4" s="1" t="s">
         <v>83</v>
@@ -3109,451 +2536,984 @@
       <c r="CE4" s="1" t="s">
         <v>83</v>
       </c>
+      <c r="CF4" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG4" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CH4" s="1" t="s">
+        <v>83</v>
+      </c>
     </row>
-    <row r="5" s="1" customFormat="1" spans="1:83">
+    <row r="5" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>86</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="AA5" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="AB5" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC5" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AD5" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AE5" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AF5" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG5" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH5" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AI5" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AJ5" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AK5" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AL5" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AM5" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AN5" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AO5" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AP5" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="K5" s="1" t="s">
+      <c r="AQ5" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AR5" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AS5" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AT5" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AU5" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AV5" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AW5" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AX5" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AY5" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AZ5" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="BA5" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="BB5" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="BC5" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="BD5" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="BE5" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="BF5" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="BG5" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="BH5" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="BI5" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="BJ5" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="BK5" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="BL5" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="BM5" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="BN5" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="BO5" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="BP5" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="BQ5" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="BR5" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="BS5" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="BT5" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="BU5" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="BV5" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="BW5" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="BX5" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="BY5" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="BZ5" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CA5" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CB5" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CC5" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CD5" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CE5" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CF5" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG5" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CH5" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="L5" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="M5" s="1" t="s">
+      <c r="L6" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="V6" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="N5" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="T5" s="1" t="s">
+      <c r="W6" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z6" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="AA6" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="AB6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AD6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AE6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AF6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AI6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AJ6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AK6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AL6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AM6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AN6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AO6" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AP6" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AQ6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AR6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AS6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AT6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AU6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AV6" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AW6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AX6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AY6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AZ6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="BA6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="BB6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="BC6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="BD6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="BE6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="BF6" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="BG6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="BH6" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="BI6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="BJ6" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="BK6" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="BL6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="BM6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="BN6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="BO6" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="BP6" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="BQ6" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="BR6" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="BS6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="BT6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="BU6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="BV6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="BW6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="BX6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="BY6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="BZ6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CA6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CB6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CC6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CD6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CE6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CF6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CH6" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="V7" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="U5" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="V5" s="1" t="s">
+      <c r="W7" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="W5" s="1" t="s">
+      <c r="X7" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y7" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z7" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="AA7" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="AB7" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC7" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AD7" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AE7" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AF7" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG7" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH7" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AI7" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AJ7" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AK7" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AL7" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AM7" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AN7" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AO7" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="X5" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="Y5" s="1" t="s">
+      <c r="AP7" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AQ7" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AR7" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AS7" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AT7" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AU7" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AV7" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AW7" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AX7" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AY7" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AZ7" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="BA7" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="BB7" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="BC7" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="BD7" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="BE7" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="BF7" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="BG7" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="BH7" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="BI7" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="BJ7" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="BK7" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="BL7" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="BM7" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="BN7" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="BO7" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="BP7" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="BQ7" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="BR7" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="Z5" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AA5" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AB5" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AC5" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AD5" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AE5" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AF5" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AG5" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AH5" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AI5" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AJ5" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AK5" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AL5" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AM5" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AN5" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AO5" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AP5" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="AQ5" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AR5" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AS5" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AT5" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AU5" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AV5" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AW5" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AX5" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AY5" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AZ5" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="BA5" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="BB5" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="BC5" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="BD5" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="BE5" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="BF5" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="BG5" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="BH5" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="BI5" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="BJ5" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="BK5" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="BL5" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="BM5" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="BN5" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="BO5" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="BP5" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="BQ5" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="BR5" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="BS5" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="BT5" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="BU5" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="BV5" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="BW5" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="BX5" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="BY5" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="BZ5" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="CA5" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="CB5" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="CC5" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="CD5" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="CE5" s="1" t="s">
+      <c r="BS7" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="BT7" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="BU7" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="BV7" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="BW7" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="BX7" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="BY7" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="BZ7" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CA7" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CB7" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CC7" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CD7" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CE7" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CF7" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG7" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CH7" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1"/>
-    <row r="7" s="1" customFormat="1"/>
-    <row r="8" s="1" customFormat="1"/>
-    <row r="9" s="1" customFormat="1"/>
-    <row r="10" s="1" customFormat="1"/>
-    <row r="11" s="1" customFormat="1"/>
-    <row r="12" s="1" customFormat="1"/>
-    <row r="13" s="1" customFormat="1"/>
-    <row r="14" s="1" customFormat="1"/>
-    <row r="15" s="1" customFormat="1"/>
-    <row r="16" s="1" customFormat="1"/>
-    <row r="17" s="1" customFormat="1"/>
-    <row r="18" s="1" customFormat="1"/>
-    <row r="19" s="1" customFormat="1"/>
-    <row r="20" s="1" customFormat="1"/>
+    <row r="8" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="20" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:EE22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:EI22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.7777777777778" customWidth="1"/>
-    <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="11.8888888888889" customWidth="1"/>
-    <col min="4" max="5" width="16.4444444444444" customWidth="1"/>
-    <col min="6" max="6" width="7.66666666666667" customWidth="1"/>
-    <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="15.2222222222222" customWidth="1"/>
-    <col min="9" max="9" width="7.66666666666667" customWidth="1"/>
-    <col min="10" max="11" width="14.1111111111111" customWidth="1"/>
-    <col min="12" max="12" width="9.66666666666667" customWidth="1"/>
-    <col min="13" max="13" width="11.8888888888889" customWidth="1"/>
-    <col min="14" max="14" width="7.66666666666667" customWidth="1"/>
-    <col min="15" max="15" width="9.66666666666667" customWidth="1"/>
-    <col min="16" max="16" width="8.66666666666667" customWidth="1"/>
-    <col min="17" max="17" width="10.7777777777778" customWidth="1"/>
-    <col min="18" max="18" width="8.66666666666667" customWidth="1"/>
-    <col min="19" max="19" width="6.66666666666667" customWidth="1"/>
-    <col min="20" max="20" width="7.66666666666667" customWidth="1"/>
-    <col min="21" max="21" width="10.7777777777778" customWidth="1"/>
-    <col min="22" max="22" width="9.66666666666667" customWidth="1"/>
-    <col min="23" max="23" width="11.8888888888889" customWidth="1"/>
-    <col min="24" max="24" width="16.4444444444444" customWidth="1"/>
-    <col min="25" max="25" width="14.1111111111111" customWidth="1"/>
-    <col min="26" max="26" width="9.66666666666667" customWidth="1"/>
-    <col min="27" max="27" width="15.2222222222222" customWidth="1"/>
-    <col min="28" max="28" width="8.66666666666667" customWidth="1"/>
-    <col min="29" max="29" width="9.66666666666667" customWidth="1"/>
-    <col min="30" max="30" width="23.1111111111111" customWidth="1"/>
-    <col min="31" max="31" width="10.7777777777778" customWidth="1"/>
-    <col min="32" max="32" width="15.2222222222222" customWidth="1"/>
-    <col min="33" max="34" width="14.1111111111111" customWidth="1"/>
-    <col min="35" max="36" width="13" customWidth="1"/>
-    <col min="37" max="37" width="9.66666666666667" customWidth="1"/>
-    <col min="38" max="38" width="13" customWidth="1"/>
-    <col min="39" max="39" width="10.7777777777778" customWidth="1"/>
-    <col min="40" max="40" width="14.1111111111111" customWidth="1"/>
-    <col min="41" max="41" width="11.8888888888889" customWidth="1"/>
-    <col min="42" max="43" width="9.66666666666667" customWidth="1"/>
-    <col min="44" max="45" width="14.1111111111111" customWidth="1"/>
-    <col min="46" max="46" width="9.66666666666667" customWidth="1"/>
-    <col min="47" max="47" width="13" customWidth="1"/>
-    <col min="48" max="48" width="14.1111111111111" customWidth="1"/>
-    <col min="49" max="49" width="8.66666666666667" customWidth="1"/>
-    <col min="50" max="50" width="17.5555555555556" customWidth="1"/>
-    <col min="51" max="51" width="11.8888888888889" customWidth="1"/>
-    <col min="52" max="52" width="8.66666666666667" customWidth="1"/>
-    <col min="53" max="53" width="9.66666666666667" customWidth="1"/>
-    <col min="54" max="54" width="13" customWidth="1"/>
-    <col min="55" max="55" width="16.4444444444444" customWidth="1"/>
-    <col min="56" max="57" width="13" customWidth="1"/>
-    <col min="58" max="58" width="16.4444444444444" customWidth="1"/>
-    <col min="59" max="59" width="15.2222222222222" customWidth="1"/>
-    <col min="60" max="60" width="33.2222222222222" customWidth="1"/>
-    <col min="61" max="61" width="17.5555555555556" customWidth="1"/>
-    <col min="62" max="62" width="14.1111111111111" customWidth="1"/>
-    <col min="63" max="63" width="11.8888888888889" customWidth="1"/>
-    <col min="64" max="64" width="8.66666666666667" customWidth="1"/>
-    <col min="65" max="65" width="14.1111111111111" customWidth="1"/>
-    <col min="66" max="66" width="9.66666666666667" customWidth="1"/>
-    <col min="67" max="67" width="17.5555555555556" customWidth="1"/>
-    <col min="68" max="68" width="10.7777777777778" customWidth="1"/>
-    <col min="69" max="69" width="11.8888888888889" customWidth="1"/>
-    <col min="70" max="70" width="13" customWidth="1"/>
-    <col min="71" max="71" width="11.8888888888889" customWidth="1"/>
-    <col min="72" max="72" width="15.2222222222222" customWidth="1"/>
-    <col min="73" max="73" width="11.8888888888889" customWidth="1"/>
-    <col min="74" max="74" width="13" customWidth="1"/>
-    <col min="75" max="75" width="17.5555555555556" customWidth="1"/>
-    <col min="76" max="76" width="20.8888888888889" customWidth="1"/>
-    <col min="77" max="77" width="16.4444444444444" customWidth="1"/>
-    <col min="78" max="78" width="13" customWidth="1"/>
-    <col min="79" max="79" width="11.8888888888889" customWidth="1"/>
-    <col min="80" max="80" width="10.7777777777778" customWidth="1"/>
-    <col min="81" max="81" width="11.8888888888889" customWidth="1"/>
-    <col min="82" max="83" width="7.66666666666667" customWidth="1"/>
-    <col min="84" max="85" width="17.5555555555556" customWidth="1"/>
-    <col min="86" max="86" width="16.4444444444444" customWidth="1"/>
-    <col min="87" max="87" width="11.8888888888889" customWidth="1"/>
-    <col min="88" max="88" width="14.1111111111111" customWidth="1"/>
-    <col min="89" max="89" width="16.4444444444444" customWidth="1"/>
-    <col min="90" max="90" width="10.7777777777778" customWidth="1"/>
-    <col min="91" max="91" width="11.8888888888889" customWidth="1"/>
-    <col min="92" max="92" width="19.7777777777778" customWidth="1"/>
-    <col min="93" max="93" width="16.4444444444444" customWidth="1"/>
-    <col min="94" max="94" width="23.1111111111111" customWidth="1"/>
-    <col min="95" max="95" width="7.66666666666667" customWidth="1"/>
-    <col min="96" max="96" width="18.6666666666667" customWidth="1"/>
-    <col min="97" max="97" width="10.7777777777778" customWidth="1"/>
-    <col min="98" max="98" width="14.1111111111111" customWidth="1"/>
-    <col min="99" max="99" width="13" customWidth="1"/>
-    <col min="100" max="100" width="16.4444444444444" customWidth="1"/>
-    <col min="101" max="102" width="13" customWidth="1"/>
-    <col min="103" max="103" width="9.66666666666667" customWidth="1"/>
-    <col min="104" max="104" width="16.4444444444444" customWidth="1"/>
-    <col min="105" max="105" width="14.1111111111111" customWidth="1"/>
-    <col min="106" max="106" width="11.8888888888889" customWidth="1"/>
-    <col min="107" max="108" width="15.2222222222222" customWidth="1"/>
-    <col min="109" max="109" width="9.66666666666667" customWidth="1"/>
-    <col min="110" max="110" width="13" customWidth="1"/>
-    <col min="111" max="111" width="9.66666666666667" customWidth="1"/>
-    <col min="112" max="112" width="15.2222222222222" customWidth="1"/>
-    <col min="113" max="113" width="17.5555555555556" customWidth="1"/>
-    <col min="114" max="114" width="14.1111111111111" customWidth="1"/>
-    <col min="115" max="115" width="19.7777777777778" customWidth="1"/>
-    <col min="116" max="116" width="16.4444444444444" customWidth="1"/>
-    <col min="117" max="117" width="20.8888888888889" customWidth="1"/>
-    <col min="118" max="118" width="24.2222222222222" customWidth="1"/>
-    <col min="119" max="119" width="16.4444444444444" customWidth="1"/>
-    <col min="120" max="120" width="17.5555555555556" customWidth="1"/>
-    <col min="121" max="121" width="22" customWidth="1"/>
-    <col min="122" max="123" width="20.8888888888889" customWidth="1"/>
-    <col min="124" max="124" width="19.7777777777778" customWidth="1"/>
-    <col min="125" max="125" width="17.5555555555556" customWidth="1"/>
-    <col min="126" max="126" width="20.8888888888889" customWidth="1"/>
-    <col min="127" max="127" width="18.6666666666667" customWidth="1"/>
-    <col min="128" max="128" width="8.66666666666667" customWidth="1"/>
-    <col min="129" max="129" width="15.2222222222222" customWidth="1"/>
-    <col min="130" max="130" width="13" customWidth="1"/>
-    <col min="131" max="131" width="14.1111111111111" customWidth="1"/>
-    <col min="132" max="132" width="10.7777777777778" customWidth="1"/>
-    <col min="133" max="133" width="11.8888888888889" customWidth="1"/>
-    <col min="134" max="134" width="15.2222222222222" customWidth="1"/>
-    <col min="135" max="135" width="16.4444444444444" customWidth="1"/>
+    <col min="1" max="1" width="11.875" customWidth="1"/>
+    <col min="2" max="3" width="16.5" customWidth="1"/>
+    <col min="4" max="4" width="7.625" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="6" max="6" width="15.25" customWidth="1"/>
+    <col min="7" max="7" width="7.625" customWidth="1"/>
+    <col min="8" max="9" width="14.125" customWidth="1"/>
+    <col min="10" max="10" width="9.625" customWidth="1"/>
+    <col min="11" max="11" width="11.875" customWidth="1"/>
+    <col min="12" max="12" width="7.625" customWidth="1"/>
+    <col min="13" max="13" width="9.625" customWidth="1"/>
+    <col min="14" max="14" width="8.625" customWidth="1"/>
+    <col min="15" max="15" width="10.75" customWidth="1"/>
+    <col min="16" max="16" width="8.625" customWidth="1"/>
+    <col min="17" max="17" width="6.625" customWidth="1"/>
+    <col min="18" max="18" width="7.625" customWidth="1"/>
+    <col min="19" max="19" width="10.75" customWidth="1"/>
+    <col min="20" max="20" width="9.625" customWidth="1"/>
+    <col min="21" max="21" width="11.875" customWidth="1"/>
+    <col min="22" max="22" width="16.5" customWidth="1"/>
+    <col min="23" max="23" width="14.125" customWidth="1"/>
+    <col min="24" max="24" width="9.625" customWidth="1"/>
+    <col min="25" max="25" width="15.25" customWidth="1"/>
+    <col min="26" max="26" width="8.625" customWidth="1"/>
+    <col min="27" max="27" width="9.625" customWidth="1"/>
+    <col min="28" max="28" width="23.125" customWidth="1"/>
+    <col min="29" max="29" width="10.75" customWidth="1"/>
+    <col min="30" max="30" width="15.25" customWidth="1"/>
+    <col min="31" max="32" width="14.125" customWidth="1"/>
+    <col min="33" max="34" width="13" customWidth="1"/>
+    <col min="35" max="35" width="9.625" customWidth="1"/>
+    <col min="36" max="36" width="13" customWidth="1"/>
+    <col min="37" max="37" width="10.75" customWidth="1"/>
+    <col min="38" max="38" width="14.125" customWidth="1"/>
+    <col min="39" max="39" width="11.875" customWidth="1"/>
+    <col min="40" max="41" width="9.625" customWidth="1"/>
+    <col min="42" max="43" width="14.125" customWidth="1"/>
+    <col min="44" max="44" width="9.625" customWidth="1"/>
+    <col min="45" max="45" width="13" customWidth="1"/>
+    <col min="46" max="46" width="14.125" customWidth="1"/>
+    <col min="47" max="47" width="8.625" customWidth="1"/>
+    <col min="48" max="48" width="17.5" customWidth="1"/>
+    <col min="49" max="49" width="11.875" customWidth="1"/>
+    <col min="50" max="50" width="8.625" customWidth="1"/>
+    <col min="51" max="51" width="9.625" customWidth="1"/>
+    <col min="52" max="52" width="13" customWidth="1"/>
+    <col min="53" max="53" width="16.5" customWidth="1"/>
+    <col min="54" max="55" width="13" customWidth="1"/>
+    <col min="56" max="56" width="16.5" customWidth="1"/>
+    <col min="57" max="57" width="15.25" customWidth="1"/>
+    <col min="58" max="58" width="33.25" customWidth="1"/>
+    <col min="59" max="59" width="17.5" customWidth="1"/>
+    <col min="60" max="60" width="14.125" customWidth="1"/>
+    <col min="61" max="61" width="11.875" customWidth="1"/>
+    <col min="62" max="62" width="8.625" customWidth="1"/>
+    <col min="63" max="63" width="14.125" customWidth="1"/>
+    <col min="64" max="64" width="9.625" customWidth="1"/>
+    <col min="65" max="65" width="17.5" customWidth="1"/>
+    <col min="66" max="66" width="10.75" customWidth="1"/>
+    <col min="67" max="67" width="11.875" customWidth="1"/>
+    <col min="68" max="68" width="13" customWidth="1"/>
+    <col min="69" max="69" width="11.875" customWidth="1"/>
+    <col min="70" max="70" width="15.25" customWidth="1"/>
+    <col min="71" max="71" width="11.875" customWidth="1"/>
+    <col min="72" max="72" width="13" customWidth="1"/>
+    <col min="73" max="73" width="17.5" customWidth="1"/>
+    <col min="74" max="74" width="20.875" customWidth="1"/>
+    <col min="75" max="75" width="16.5" customWidth="1"/>
+    <col min="76" max="76" width="13" customWidth="1"/>
+    <col min="77" max="77" width="11.875" customWidth="1"/>
+    <col min="78" max="78" width="10.75" customWidth="1"/>
+    <col min="79" max="79" width="11.875" customWidth="1"/>
+    <col min="80" max="81" width="7.625" customWidth="1"/>
+    <col min="82" max="83" width="17.5" customWidth="1"/>
+    <col min="84" max="84" width="16.5" customWidth="1"/>
+    <col min="85" max="85" width="11.875" customWidth="1"/>
+    <col min="86" max="86" width="14.125" customWidth="1"/>
+    <col min="87" max="87" width="16.5" customWidth="1"/>
+    <col min="88" max="88" width="10.75" customWidth="1"/>
+    <col min="89" max="89" width="11.875" customWidth="1"/>
+    <col min="90" max="90" width="19.75" customWidth="1"/>
+    <col min="91" max="91" width="16.5" customWidth="1"/>
+    <col min="92" max="92" width="23.125" customWidth="1"/>
+    <col min="93" max="93" width="7.625" customWidth="1"/>
+    <col min="94" max="94" width="18.625" customWidth="1"/>
+    <col min="95" max="95" width="10.75" customWidth="1"/>
+    <col min="96" max="96" width="14.125" customWidth="1"/>
+    <col min="97" max="97" width="13" customWidth="1"/>
+    <col min="98" max="98" width="16.5" customWidth="1"/>
+    <col min="99" max="100" width="13" customWidth="1"/>
+    <col min="101" max="101" width="9.625" customWidth="1"/>
+    <col min="102" max="102" width="16.5" customWidth="1"/>
+    <col min="103" max="103" width="14.125" customWidth="1"/>
+    <col min="104" max="104" width="11.875" customWidth="1"/>
+    <col min="105" max="106" width="15.25" customWidth="1"/>
+    <col min="107" max="107" width="9.625" customWidth="1"/>
+    <col min="108" max="108" width="13" customWidth="1"/>
+    <col min="109" max="109" width="9.625" customWidth="1"/>
+    <col min="110" max="110" width="15.25" customWidth="1"/>
+    <col min="111" max="111" width="17.5" customWidth="1"/>
+    <col min="112" max="112" width="14.125" customWidth="1"/>
+    <col min="113" max="113" width="19.75" customWidth="1"/>
+    <col min="114" max="114" width="16.5" customWidth="1"/>
+    <col min="115" max="115" width="20.875" customWidth="1"/>
+    <col min="116" max="116" width="24.25" customWidth="1"/>
+    <col min="117" max="117" width="16.5" customWidth="1"/>
+    <col min="118" max="118" width="17.5" customWidth="1"/>
+    <col min="119" max="119" width="22" customWidth="1"/>
+    <col min="120" max="121" width="20.875" customWidth="1"/>
+    <col min="122" max="122" width="19.75" customWidth="1"/>
+    <col min="123" max="123" width="17.5" customWidth="1"/>
+    <col min="124" max="124" width="20.875" customWidth="1"/>
+    <col min="125" max="125" width="18.625" customWidth="1"/>
+    <col min="126" max="126" width="8.625" customWidth="1"/>
+    <col min="127" max="127" width="15.25" customWidth="1"/>
+    <col min="128" max="128" width="13" customWidth="1"/>
+    <col min="129" max="129" width="14.125" customWidth="1"/>
+    <col min="130" max="130" width="10.75" customWidth="1"/>
+    <col min="131" max="131" width="11.875" customWidth="1"/>
+    <col min="132" max="132" width="15.25" customWidth="1"/>
+    <col min="133" max="133" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:135">
+    <row r="1" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>3</v>
@@ -3571,375 +3531,387 @@
         <v>23</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>24</v>
       </c>
       <c r="U1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA1" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>145</v>
       </c>
       <c r="AR1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="AS1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AY1" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="BE1" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BF1" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BG1" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BH1" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BI1" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BK1" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BL1" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BM1" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="BH1" s="1" t="s">
+      <c r="BN1" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="BO1" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="BP1" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="BK1" s="1" t="s">
+      <c r="BQ1" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="BL1" s="1" t="s">
+      <c r="BR1" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="BM1" s="1" t="s">
+      <c r="BS1" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="BN1" s="1" t="s">
+      <c r="BT1" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="BO1" s="1" t="s">
+      <c r="BU1" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="BP1" s="1" t="s">
+      <c r="BV1" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="BQ1" s="1" t="s">
+      <c r="BW1" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="BR1" s="1" t="s">
+      <c r="BX1" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="BS1" s="1" t="s">
+      <c r="BY1" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="BT1" s="1" t="s">
+      <c r="BZ1" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="BU1" s="1" t="s">
+      <c r="CA1" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="BV1" s="1" t="s">
+      <c r="CB1" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="BW1" s="1" t="s">
+      <c r="CC1" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="BX1" s="1" t="s">
+      <c r="CD1" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="BY1" s="1" t="s">
+      <c r="CE1" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="BZ1" s="1" t="s">
+      <c r="CF1" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="CA1" s="1" t="s">
+      <c r="CG1" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="CB1" s="1" t="s">
+      <c r="CH1" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="CC1" s="1" t="s">
+      <c r="CI1" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="CD1" s="1" t="s">
+      <c r="CJ1" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="CE1" s="1" t="s">
+      <c r="CK1" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="CF1" s="1" t="s">
+      <c r="CL1" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="CG1" s="1" t="s">
+      <c r="CM1" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="CH1" s="1" t="s">
+      <c r="CN1" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="CI1" s="1" t="s">
+      <c r="CO1" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="CJ1" s="1" t="s">
+      <c r="CP1" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="CK1" s="1" t="s">
+      <c r="CQ1" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="CL1" s="1" t="s">
+      <c r="CR1" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="CM1" s="1" t="s">
+      <c r="CS1" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="CN1" s="1" t="s">
+      <c r="CT1" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="CO1" s="1" t="s">
+      <c r="CU1" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="CP1" s="1" t="s">
+      <c r="CV1" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="CQ1" s="1" t="s">
+      <c r="CW1" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="CR1" s="1" t="s">
+      <c r="CX1" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="CS1" s="1" t="s">
+      <c r="CY1" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="CT1" s="1" t="s">
+      <c r="CZ1" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="CU1" s="1" t="s">
+      <c r="DA1" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="CV1" s="1" t="s">
+      <c r="DB1" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="CW1" s="1" t="s">
+      <c r="DC1" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="CX1" s="1" t="s">
+      <c r="DD1" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="CY1" s="1" t="s">
+      <c r="DE1" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="CZ1" s="1" t="s">
+      <c r="DF1" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="DA1" s="1" t="s">
+      <c r="DG1" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="DB1" s="1" t="s">
+      <c r="DH1" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="DC1" s="1" t="s">
+      <c r="DI1" s="1" t="s">
         <v>208</v>
-      </c>
-      <c r="DD1" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="DE1" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="DF1" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="DG1" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="DH1" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="DI1" s="1" t="s">
-        <v>214</v>
       </c>
       <c r="DJ1" s="1" t="s">
         <v>69</v>
       </c>
       <c r="DK1" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="DL1" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="DM1" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="DN1" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="DO1" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="DP1" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="DQ1" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="DL1" s="1" t="s">
+      <c r="DR1" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="DM1" s="1" t="s">
+      <c r="DS1" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="DN1" s="1" t="s">
+      <c r="DT1" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="DO1" s="1" t="s">
+      <c r="DU1" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="DP1" s="1" t="s">
+      <c r="DV1" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="DQ1" s="1" t="s">
+      <c r="DW1" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="DR1" s="1" t="s">
+      <c r="DX1" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="DS1" s="1" t="s">
+      <c r="DY1" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="DT1" s="1" t="s">
+      <c r="DZ1" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="DU1" s="1" t="s">
+      <c r="EA1" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="DV1" s="1" t="s">
+      <c r="EB1" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="DW1" s="1" t="s">
+      <c r="EC1" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="DX1" s="1" t="s">
+      <c r="ED1" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="DY1" s="1" t="s">
+      <c r="EE1" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="DZ1" s="1" t="s">
+      <c r="EF1" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="EG1" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="EH1" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="EI1" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="2" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="EA1" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="EB1" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="EC1" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="ED1" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="EE1" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:135">
-      <c r="A2" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>237</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>238</v>
+        <v>329</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>239</v>
+        <v>329</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>83</v>
@@ -3951,100 +3923,100 @@
         <v>86</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>85</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="W2" s="1" t="s">
         <v>89</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>243</v>
+        <v>330</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>244</v>
+        <v>331</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AD2" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AE2" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AF2" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AG2" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AH2" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AI2" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AJ2" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AK2" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AL2" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AM2" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AN2" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AO2" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AP2" s="1" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="AQ2" s="1" t="s">
-        <v>95</v>
+        <v>332</v>
       </c>
       <c r="AR2" s="1" t="s">
         <v>84</v>
@@ -4053,22 +4025,22 @@
         <v>86</v>
       </c>
       <c r="AT2" s="1" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="AU2" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="AV2" s="1" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="AX2" s="1" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="AY2" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AZ2" s="1" t="s">
-        <v>249</v>
+        <v>232</v>
       </c>
       <c r="BA2" s="1" t="s">
         <v>83</v>
@@ -4077,189 +4049,198 @@
         <v>83</v>
       </c>
       <c r="BC2" s="1" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="BF2" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="BG2" s="1" t="s">
         <v>83</v>
       </c>
       <c r="BH2" s="1" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="BI2" s="1" t="s">
         <v>89</v>
       </c>
       <c r="BJ2" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BL2" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BM2" s="1" t="s">
         <v>83</v>
       </c>
       <c r="BN2" s="1" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="BP2" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="BQ2" s="1" t="s">
         <v>83</v>
       </c>
       <c r="BR2" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BS2" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BT2" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="BV2" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="BW2" s="1" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="BX2" s="1" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="BY2" s="1" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="BZ2" s="1" t="s">
         <v>83</v>
       </c>
       <c r="CA2" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="CB2" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="CD2" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="CE2" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="CG2" s="1" t="s">
         <v>83</v>
       </c>
       <c r="CH2" s="1" t="s">
-        <v>253</v>
+        <v>333</v>
       </c>
       <c r="CJ2" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="CK2" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="CL2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CR2" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="CL2" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="CR2" s="1" t="s">
-        <v>254</v>
-      </c>
       <c r="CT2" s="1" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="CV2" s="1" t="s">
         <v>83</v>
       </c>
       <c r="DA2" s="1" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="DC2" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="DD2" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="DE2" s="1" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="DF2" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="DG2" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="DJ2" s="1" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="DK2" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="DL2" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="DM2" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="DN2" s="1" t="s">
         <v>89</v>
       </c>
       <c r="DO2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="DP2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="DQ2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="DR2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="DS2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="DT2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="DU2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="DV2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="DW2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="DX2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="DY2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="EC2" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="ED2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="EE2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="EG2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="EH2" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="EI2" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="DP2" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="DQ2" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="DR2" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="DS2" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="DT2" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="DU2" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="DV2" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="DW2" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="DX2" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="DY2" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="EC2" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="ED2" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="EE2" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:135">
-      <c r="A3" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>93</v>
-      </c>
       <c r="D3" s="1" t="s">
-        <v>238</v>
+        <v>329</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>239</v>
+        <v>329</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>83</v>
@@ -4271,100 +4252,100 @@
         <v>86</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>85</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>89</v>
+        <v>320</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>243</v>
+        <v>330</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Z3" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>259</v>
+        <v>335</v>
       </c>
       <c r="AB3" s="1" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="AC3" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AD3" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AE3" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AF3" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AG3" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AH3" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AI3" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AJ3" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AK3" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AL3" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AM3" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AN3" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AO3" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AP3" s="1" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="AQ3" s="1" t="s">
-        <v>95</v>
+        <v>332</v>
       </c>
       <c r="AR3" s="1" t="s">
         <v>84</v>
@@ -4373,22 +4354,22 @@
         <v>86</v>
       </c>
       <c r="AT3" s="1" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="AU3" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="AV3" s="1" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="AX3" s="1" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="AY3" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AZ3" s="1" t="s">
-        <v>249</v>
+        <v>232</v>
       </c>
       <c r="BA3" s="1" t="s">
         <v>83</v>
@@ -4397,318 +4378,327 @@
         <v>83</v>
       </c>
       <c r="BC3" s="1" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="BF3" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="BG3" s="1" t="s">
         <v>83</v>
       </c>
       <c r="BH3" s="1" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="BI3" s="1" t="s">
         <v>89</v>
       </c>
       <c r="BJ3" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BL3" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BM3" s="1" t="s">
         <v>83</v>
       </c>
       <c r="BN3" s="1" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="BP3" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="BQ3" s="1" t="s">
         <v>83</v>
       </c>
       <c r="BR3" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BS3" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BT3" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="BV3" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="BW3" s="1" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="BX3" s="1" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="BY3" s="1" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="BZ3" s="1" t="s">
         <v>83</v>
       </c>
       <c r="CA3" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="CB3" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="CD3" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="CE3" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="CG3" s="1" t="s">
         <v>83</v>
       </c>
       <c r="CH3" s="1" t="s">
-        <v>260</v>
+        <v>336</v>
       </c>
       <c r="CJ3" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="CK3" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="CL3" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CR3" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="CL3" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="CR3" s="1" t="s">
-        <v>254</v>
-      </c>
       <c r="CT3" s="1" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="CV3" s="1" t="s">
         <v>83</v>
       </c>
       <c r="DA3" s="1" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="DC3" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="DD3" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="DE3" s="1" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="DF3" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="DG3" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="DJ3" s="1" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="DK3" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="DL3" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="DM3" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="DN3" s="1" t="s">
         <v>89</v>
       </c>
       <c r="DO3" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="DP3" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="DQ3" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="DR3" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="DS3" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="DT3" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="DU3" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="DV3" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="DW3" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="DX3" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="DY3" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="EC3" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="ED3" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="EE3" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="EG3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="EH3" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="EI3" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="DP3" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="DQ3" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="DR3" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="DS3" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="DT3" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="DU3" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="DV3" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="DW3" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="DX3" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="DY3" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="EC3" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="ED3" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="EE3" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:135">
-      <c r="A4" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>93</v>
-      </c>
       <c r="D4" s="1" t="s">
-        <v>238</v>
+        <v>329</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>239</v>
+        <v>329</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>83</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>86</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>89</v>
+        <v>320</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>243</v>
+        <v>330</v>
       </c>
       <c r="Y4" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Z4" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AA4" s="1" t="s">
-        <v>263</v>
+        <v>340</v>
       </c>
       <c r="AB4" s="1" t="s">
-        <v>264</v>
+        <v>248</v>
       </c>
       <c r="AC4" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AD4" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AE4" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AF4" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AG4" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AH4" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AI4" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AJ4" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AK4" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AL4" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AM4" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AN4" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AO4" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AP4" s="1" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="AQ4" s="1" t="s">
-        <v>95</v>
+        <v>332</v>
       </c>
       <c r="AR4" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="AS4" s="1" t="s">
         <v>86</v>
       </c>
       <c r="AT4" s="1" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="AU4" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="AV4" s="1" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="AX4" s="1" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="AY4" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AZ4" s="1" t="s">
-        <v>249</v>
+        <v>232</v>
       </c>
       <c r="BA4" s="1" t="s">
         <v>83</v>
@@ -4717,318 +4707,327 @@
         <v>83</v>
       </c>
       <c r="BC4" s="1" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="BF4" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="BG4" s="1" t="s">
         <v>83</v>
       </c>
       <c r="BH4" s="1" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="BI4" s="1" t="s">
         <v>89</v>
       </c>
       <c r="BJ4" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BL4" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BM4" s="1" t="s">
         <v>83</v>
       </c>
       <c r="BN4" s="1" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="BP4" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="BQ4" s="1" t="s">
         <v>83</v>
       </c>
       <c r="BR4" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BS4" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BT4" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="BV4" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="BW4" s="1" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="BX4" s="1" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="BY4" s="1" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="BZ4" s="1" t="s">
         <v>83</v>
       </c>
       <c r="CA4" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="CB4" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="CD4" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="CE4" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="CG4" s="1" t="s">
         <v>83</v>
       </c>
       <c r="CH4" s="1" t="s">
-        <v>265</v>
+        <v>341</v>
       </c>
       <c r="CJ4" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="CK4" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="CL4" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CR4" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="CL4" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="CR4" s="1" t="s">
-        <v>254</v>
-      </c>
       <c r="CT4" s="1" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="CV4" s="1" t="s">
         <v>83</v>
       </c>
       <c r="DA4" s="1" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="DC4" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="DD4" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="DE4" s="1" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="DF4" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="DG4" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="DJ4" s="1" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="DK4" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="DL4" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="DM4" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="DN4" s="1" t="s">
         <v>89</v>
       </c>
       <c r="DO4" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="DP4" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="DQ4" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="DR4" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="DS4" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="DT4" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="DU4" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="DV4" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="DW4" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="DX4" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="DY4" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="EC4" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="ED4" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="EE4" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="EG4" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="EH4" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="EI4" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="DP4" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="DQ4" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="DR4" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="DS4" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="DT4" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="DU4" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="DV4" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="DW4" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="DX4" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="DY4" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="EC4" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="ED4" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="EE4" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="1:135">
-      <c r="A5" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>93</v>
-      </c>
       <c r="D5" s="1" t="s">
-        <v>238</v>
+        <v>329</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>239</v>
+        <v>329</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>83</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>86</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="W5" s="1" t="s">
         <v>89</v>
       </c>
       <c r="X5" s="1" t="s">
-        <v>243</v>
+        <v>330</v>
       </c>
       <c r="Y5" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Z5" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AA5" s="1" t="s">
-        <v>263</v>
+        <v>335</v>
       </c>
       <c r="AB5" s="1" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
       <c r="AC5" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AD5" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AE5" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AF5" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AG5" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AH5" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AI5" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AJ5" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AK5" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AL5" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AM5" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AN5" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AO5" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AP5" s="1" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="AQ5" s="1" t="s">
-        <v>95</v>
+        <v>332</v>
       </c>
       <c r="AR5" s="1" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="AS5" s="1" t="s">
         <v>86</v>
       </c>
       <c r="AT5" s="1" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="AU5" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="AV5" s="1" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="AX5" s="1" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="AY5" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AZ5" s="1" t="s">
-        <v>249</v>
+        <v>232</v>
       </c>
       <c r="BA5" s="1" t="s">
         <v>83</v>
@@ -5037,10 +5036,10 @@
         <v>83</v>
       </c>
       <c r="BC5" s="1" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="BF5" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="BG5" s="1" t="s">
         <v>83</v>
@@ -5052,174 +5051,183 @@
         <v>89</v>
       </c>
       <c r="BJ5" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BL5" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BM5" s="1" t="s">
         <v>83</v>
       </c>
       <c r="BN5" s="1" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="BP5" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="BQ5" s="1" t="s">
         <v>83</v>
       </c>
       <c r="BR5" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BS5" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BT5" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="BV5" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="BW5" s="1" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="BX5" s="1" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="BY5" s="1" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="BZ5" s="1" t="s">
         <v>83</v>
       </c>
       <c r="CA5" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="CB5" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="CD5" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="CE5" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="CG5" s="1" t="s">
         <v>83</v>
       </c>
       <c r="CH5" s="1" t="s">
-        <v>267</v>
+        <v>343</v>
       </c>
       <c r="CJ5" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="CK5" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="CL5" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CR5" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="CL5" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="CR5" s="1" t="s">
-        <v>254</v>
-      </c>
       <c r="CT5" s="1" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="CV5" s="1" t="s">
         <v>83</v>
       </c>
       <c r="DA5" s="1" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="DC5" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="DD5" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="DE5" s="1" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="DF5" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="DG5" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="DJ5" s="1" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="DK5" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="DL5" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="DM5" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="DN5" s="1" t="s">
         <v>89</v>
       </c>
       <c r="DO5" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="DP5" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="DQ5" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="DR5" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="DS5" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="DT5" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="DU5" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="DV5" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="DW5" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="DX5" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="DY5" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="EC5" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="ED5" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="EE5" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="EG5" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="EH5" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="EI5" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="DP5" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="DQ5" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="DR5" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="DS5" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="DT5" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="DU5" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="DV5" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="DW5" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="DX5" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="DY5" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="EC5" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="ED5" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="EE5" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="1:135">
-      <c r="A6" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>93</v>
-      </c>
       <c r="D6" s="1" t="s">
-        <v>238</v>
+        <v>329</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>239</v>
+        <v>329</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>83</v>
@@ -5231,100 +5239,100 @@
         <v>86</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>85</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="P6" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="T6" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="Q6" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="S6" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="T6" s="1" t="s">
-        <v>96</v>
-      </c>
       <c r="U6" s="1" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="W6" s="1" t="s">
         <v>89</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>243</v>
+        <v>330</v>
       </c>
       <c r="Y6" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Z6" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AA6" s="1" t="s">
-        <v>244</v>
+        <v>331</v>
       </c>
       <c r="AB6" s="1" t="s">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="AC6" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AD6" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AE6" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AF6" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AG6" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AH6" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AI6" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AJ6" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AK6" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AL6" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AM6" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AN6" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AO6" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AP6" s="1" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="AQ6" s="1" t="s">
-        <v>95</v>
+        <v>332</v>
       </c>
       <c r="AR6" s="1" t="s">
         <v>84</v>
@@ -5333,22 +5341,22 @@
         <v>86</v>
       </c>
       <c r="AT6" s="1" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="AU6" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="AV6" s="1" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="AX6" s="1" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="AY6" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AZ6" s="1" t="s">
-        <v>249</v>
+        <v>232</v>
       </c>
       <c r="BA6" s="1" t="s">
         <v>83</v>
@@ -5357,318 +5365,327 @@
         <v>83</v>
       </c>
       <c r="BC6" s="1" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="BF6" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="BG6" s="1" t="s">
         <v>83</v>
       </c>
       <c r="BH6" s="1" t="s">
-        <v>271</v>
+        <v>251</v>
       </c>
       <c r="BI6" s="1" t="s">
         <v>89</v>
       </c>
       <c r="BJ6" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BL6" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BM6" s="1" t="s">
         <v>83</v>
       </c>
       <c r="BN6" s="1" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="BP6" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="BQ6" s="1" t="s">
         <v>83</v>
       </c>
       <c r="BR6" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BS6" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BT6" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="BV6" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="BW6" s="1" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="BX6" s="1" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="BY6" s="1" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="BZ6" s="1" t="s">
         <v>83</v>
       </c>
       <c r="CA6" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="CB6" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="CD6" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="CE6" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="CG6" s="1" t="s">
         <v>83</v>
       </c>
       <c r="CH6" s="1" t="s">
-        <v>272</v>
+        <v>345</v>
       </c>
       <c r="CJ6" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="CK6" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="CL6" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CR6" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="CL6" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="CR6" s="1" t="s">
-        <v>254</v>
-      </c>
       <c r="CT6" s="1" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="CV6" s="1" t="s">
         <v>83</v>
       </c>
       <c r="DA6" s="1" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="DC6" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="DD6" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="DE6" s="1" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="DF6" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="DG6" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="DJ6" s="1" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="DK6" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="DL6" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="DM6" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="DN6" s="1" t="s">
         <v>89</v>
       </c>
       <c r="DO6" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="DP6" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="DQ6" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="DR6" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="DS6" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="DT6" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="DU6" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="DV6" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="DW6" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="DX6" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="DY6" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="EC6" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="ED6" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="EE6" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="EG6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="EH6" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="EI6" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="DP6" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="DQ6" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="DR6" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="DS6" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="DT6" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="DU6" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="DV6" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="DW6" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="DX6" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="DY6" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="EC6" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="ED6" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="EE6" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="1:135">
-      <c r="A7" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>93</v>
-      </c>
       <c r="D7" s="1" t="s">
-        <v>238</v>
+        <v>329</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>239</v>
+        <v>329</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>83</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>86</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="P7" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="T7" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="Q7" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="R7" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="S7" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="T7" s="1" t="s">
-        <v>96</v>
-      </c>
       <c r="U7" s="1" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>269</v>
+        <v>234</v>
       </c>
       <c r="W7" s="1" t="s">
         <v>89</v>
       </c>
       <c r="X7" s="1" t="s">
-        <v>243</v>
+        <v>330</v>
       </c>
       <c r="Y7" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Z7" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AA7" s="1" t="s">
-        <v>259</v>
+        <v>340</v>
       </c>
       <c r="AB7" s="1" t="s">
-        <v>270</v>
+        <v>248</v>
       </c>
       <c r="AC7" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AD7" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AE7" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AF7" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AG7" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AH7" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AI7" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AJ7" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AK7" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AL7" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AM7" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AN7" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AO7" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AP7" s="1" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="AQ7" s="1" t="s">
-        <v>95</v>
+        <v>332</v>
       </c>
       <c r="AR7" s="1" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="AS7" s="1" t="s">
         <v>86</v>
       </c>
       <c r="AT7" s="1" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="AU7" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="AV7" s="1" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="AX7" s="1" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="AY7" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AZ7" s="1" t="s">
-        <v>249</v>
+        <v>232</v>
       </c>
       <c r="BA7" s="1" t="s">
         <v>83</v>
@@ -5677,189 +5694,198 @@
         <v>83</v>
       </c>
       <c r="BC7" s="1" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="BF7" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="BG7" s="1" t="s">
         <v>83</v>
       </c>
       <c r="BH7" s="1" t="s">
-        <v>271</v>
+        <v>241</v>
       </c>
       <c r="BI7" s="1" t="s">
         <v>89</v>
       </c>
       <c r="BJ7" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BL7" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BM7" s="1" t="s">
         <v>83</v>
       </c>
       <c r="BN7" s="1" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="BP7" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="BQ7" s="1" t="s">
         <v>83</v>
       </c>
       <c r="BR7" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BS7" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BT7" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="BV7" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="BW7" s="1" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="BX7" s="1" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="BY7" s="1" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="BZ7" s="1" t="s">
         <v>83</v>
       </c>
       <c r="CA7" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="CB7" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="CD7" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="CE7" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="CG7" s="1" t="s">
         <v>83</v>
       </c>
       <c r="CH7" s="1" t="s">
-        <v>274</v>
+        <v>347</v>
       </c>
       <c r="CJ7" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="CK7" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="CL7" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CR7" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="CL7" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="CR7" s="1" t="s">
-        <v>254</v>
-      </c>
       <c r="CT7" s="1" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="CV7" s="1" t="s">
         <v>83</v>
       </c>
       <c r="DA7" s="1" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="DC7" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="DD7" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="DE7" s="1" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="DF7" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="DG7" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="DJ7" s="1" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="DK7" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="DL7" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="DM7" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="DN7" s="1" t="s">
         <v>89</v>
       </c>
       <c r="DO7" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="DP7" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="DQ7" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="DR7" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="DS7" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="DT7" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="DU7" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="DV7" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="DW7" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="DX7" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="DY7" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="EC7" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="ED7" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="EE7" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="EG7" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="EH7" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="EI7" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="DP7" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="DQ7" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="DR7" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="DS7" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="DT7" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="DU7" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="DV7" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="DW7" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="DX7" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="DY7" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="EC7" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="ED7" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="EE7" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="8" s="1" customFormat="1" spans="1:135">
-      <c r="A8" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>93</v>
-      </c>
       <c r="D8" s="1" t="s">
-        <v>238</v>
+        <v>329</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>238</v>
+        <v>329</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>83</v>
@@ -5871,100 +5897,100 @@
         <v>86</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="M8" s="1" t="s">
         <v>85</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="P8" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="T8" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="Q8" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="R8" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="S8" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="T8" s="1" t="s">
-        <v>96</v>
-      </c>
       <c r="U8" s="1" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="W8" s="1" t="s">
-        <v>277</v>
+        <v>253</v>
       </c>
       <c r="X8" s="1" t="s">
-        <v>243</v>
+        <v>330</v>
       </c>
       <c r="Y8" s="1" t="s">
-        <v>278</v>
+        <v>254</v>
       </c>
       <c r="Z8" s="1" t="s">
-        <v>278</v>
+        <v>254</v>
       </c>
       <c r="AA8" s="1" t="s">
-        <v>259</v>
+        <v>349</v>
       </c>
       <c r="AB8" s="1" t="s">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="AC8" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AD8" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AE8" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AF8" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AG8" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AH8" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AI8" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AJ8" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AK8" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AL8" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AM8" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AN8" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AO8" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AP8" s="1" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="AQ8" s="1" t="s">
-        <v>95</v>
+        <v>332</v>
       </c>
       <c r="AR8" s="1" t="s">
         <v>84</v>
@@ -5973,22 +5999,22 @@
         <v>86</v>
       </c>
       <c r="AT8" s="1" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="AU8" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="AV8" s="1" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="AX8" s="1" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="AY8" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AZ8" s="1" t="s">
-        <v>249</v>
+        <v>232</v>
       </c>
       <c r="BA8" s="1" t="s">
         <v>83</v>
@@ -5997,189 +6023,198 @@
         <v>83</v>
       </c>
       <c r="BC8" s="1" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="BF8" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="BG8" s="1" t="s">
         <v>83</v>
       </c>
       <c r="BH8" s="1" t="s">
-        <v>279</v>
+        <v>255</v>
       </c>
       <c r="BI8" s="1" t="s">
         <v>89</v>
       </c>
       <c r="BJ8" s="1" t="s">
-        <v>278</v>
+        <v>254</v>
       </c>
       <c r="BL8" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BM8" s="1" t="s">
         <v>83</v>
       </c>
       <c r="BN8" s="1" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="BP8" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="BQ8" s="1" t="s">
         <v>83</v>
       </c>
       <c r="BR8" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BS8" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BT8" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="BV8" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="BW8" s="1" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="BX8" s="1" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="BY8" s="1" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="BZ8" s="1" t="s">
         <v>83</v>
       </c>
       <c r="CA8" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="CB8" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="CD8" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="CE8" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="CG8" s="1" t="s">
         <v>83</v>
       </c>
       <c r="CH8" s="1" t="s">
-        <v>280</v>
+        <v>350</v>
       </c>
       <c r="CJ8" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="CK8" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="CL8" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CR8" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="CL8" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="CR8" s="1" t="s">
-        <v>254</v>
-      </c>
       <c r="CT8" s="1" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="CV8" s="1" t="s">
         <v>83</v>
       </c>
       <c r="DA8" s="1" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="DC8" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="DD8" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="DE8" s="1" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="DF8" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="DG8" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="DJ8" s="1" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="DK8" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="DL8" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="DM8" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="DN8" s="1" t="s">
         <v>89</v>
       </c>
       <c r="DO8" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="DP8" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="DQ8" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="DR8" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="DS8" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="DT8" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="DU8" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="DV8" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="DW8" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="DX8" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="DY8" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="EC8" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="ED8" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="EE8" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="EG8" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="EH8" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="EI8" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="DP8" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="DQ8" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="DR8" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="DS8" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="DT8" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="DU8" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="DV8" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="DW8" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="DX8" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="DY8" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="EC8" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="ED8" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="EE8" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="9" s="1" customFormat="1" spans="1:135">
-      <c r="A9" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>93</v>
-      </c>
       <c r="D9" s="1" t="s">
-        <v>238</v>
+        <v>329</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>238</v>
+        <v>329</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>83</v>
@@ -6191,100 +6226,100 @@
         <v>86</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="M9" s="1" t="s">
         <v>85</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="P9" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="T9" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="Q9" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="R9" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="S9" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="T9" s="1" t="s">
-        <v>96</v>
-      </c>
       <c r="U9" s="1" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="W9" s="1" t="s">
-        <v>277</v>
+        <v>253</v>
       </c>
       <c r="X9" s="1" t="s">
-        <v>243</v>
+        <v>330</v>
       </c>
       <c r="Y9" s="1" t="s">
-        <v>278</v>
+        <v>254</v>
       </c>
       <c r="Z9" s="1" t="s">
-        <v>278</v>
+        <v>254</v>
       </c>
       <c r="AA9" s="1" t="s">
-        <v>282</v>
+        <v>335</v>
       </c>
       <c r="AB9" s="1" t="s">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="AC9" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AD9" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AE9" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AF9" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AG9" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AH9" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AI9" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AJ9" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AK9" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AL9" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AM9" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AN9" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AO9" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AP9" s="1" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="AQ9" s="1" t="s">
-        <v>95</v>
+        <v>332</v>
       </c>
       <c r="AR9" s="1" t="s">
         <v>84</v>
@@ -6293,22 +6328,22 @@
         <v>86</v>
       </c>
       <c r="AT9" s="1" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="AU9" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="AV9" s="1" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="AX9" s="1" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="AY9" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AZ9" s="1" t="s">
-        <v>249</v>
+        <v>232</v>
       </c>
       <c r="BA9" s="1" t="s">
         <v>83</v>
@@ -6317,272 +6352,278 @@
         <v>83</v>
       </c>
       <c r="BC9" s="1" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="BF9" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="BG9" s="1" t="s">
         <v>83</v>
       </c>
       <c r="BH9" s="1" t="s">
-        <v>279</v>
+        <v>255</v>
       </c>
       <c r="BI9" s="1" t="s">
         <v>89</v>
       </c>
       <c r="BJ9" s="1" t="s">
-        <v>278</v>
+        <v>254</v>
       </c>
       <c r="BL9" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BM9" s="1" t="s">
         <v>83</v>
       </c>
       <c r="BN9" s="1" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="BP9" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="BQ9" s="1" t="s">
         <v>83</v>
       </c>
       <c r="BR9" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BS9" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BT9" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="BV9" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="BW9" s="1" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="BX9" s="1" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="BY9" s="1" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="BZ9" s="1" t="s">
         <v>83</v>
       </c>
       <c r="CA9" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="CB9" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="CD9" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="CE9" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="CG9" s="1" t="s">
         <v>83</v>
       </c>
       <c r="CH9" s="1" t="s">
-        <v>283</v>
+        <v>352</v>
       </c>
       <c r="CJ9" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="CK9" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="CL9" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CR9" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="CL9" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="CR9" s="1" t="s">
-        <v>254</v>
-      </c>
       <c r="CT9" s="1" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="CV9" s="1" t="s">
         <v>83</v>
       </c>
       <c r="DA9" s="1" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="DC9" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="DD9" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="DE9" s="1" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="DF9" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="DG9" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="DJ9" s="1" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="DK9" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="DL9" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="DM9" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="DN9" s="1" t="s">
         <v>89</v>
       </c>
       <c r="DO9" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="DP9" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="DQ9" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="DR9" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="DS9" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="DT9" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="DU9" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="DV9" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="DW9" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="DX9" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="DY9" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="EC9" s="1" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="ED9" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="EE9" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
+      </c>
+      <c r="EG9" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="EH9" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="EI9" s="1" t="s">
+        <v>95</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1"/>
-    <row r="11" s="1" customFormat="1"/>
-    <row r="12" s="1" customFormat="1"/>
-    <row r="13" s="1" customFormat="1"/>
-    <row r="14" s="1" customFormat="1"/>
-    <row r="15" s="1" customFormat="1"/>
-    <row r="16" s="1" customFormat="1"/>
-    <row r="17" s="1" customFormat="1"/>
-    <row r="18" s="1" customFormat="1"/>
-    <row r="19" s="1" customFormat="1"/>
-    <row r="20" s="1" customFormat="1"/>
-    <row r="21" s="1" customFormat="1"/>
-    <row r="22" s="1" customFormat="1"/>
+    <row r="10" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="20" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="21" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="22" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
-  <autoFilter ref="A1:EE9">
-    <extLst/>
-  </autoFilter>
+  <autoFilter ref="A1:EC9"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:BM15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BM10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="16.4444444444444" customWidth="1"/>
-    <col min="3" max="3" width="7.66666666666667" customWidth="1"/>
-    <col min="4" max="4" width="11.8888888888889" customWidth="1"/>
-    <col min="5" max="5" width="8.66666666666667" customWidth="1"/>
+    <col min="1" max="2" width="16.5" customWidth="1"/>
+    <col min="3" max="3" width="7.625" customWidth="1"/>
+    <col min="4" max="4" width="11.875" customWidth="1"/>
+    <col min="5" max="5" width="8.625" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="7.66666666666667" customWidth="1"/>
-    <col min="8" max="8" width="10.7777777777778" customWidth="1"/>
-    <col min="9" max="9" width="9.66666666666667" customWidth="1"/>
-    <col min="10" max="10" width="7.66666666666667" customWidth="1"/>
-    <col min="11" max="11" width="9.66666666666667" customWidth="1"/>
-    <col min="12" max="13" width="11.8888888888889" customWidth="1"/>
-    <col min="14" max="14" width="10.7777777777778" customWidth="1"/>
-    <col min="15" max="15" width="9.66666666666667" customWidth="1"/>
+    <col min="7" max="7" width="7.625" customWidth="1"/>
+    <col min="8" max="8" width="10.75" customWidth="1"/>
+    <col min="9" max="9" width="9.625" customWidth="1"/>
+    <col min="10" max="10" width="7.625" customWidth="1"/>
+    <col min="11" max="11" width="9.625" customWidth="1"/>
+    <col min="12" max="13" width="11.875" customWidth="1"/>
+    <col min="14" max="14" width="10.75" customWidth="1"/>
+    <col min="15" max="15" width="9.625" customWidth="1"/>
     <col min="16" max="16" width="13" customWidth="1"/>
-    <col min="17" max="17" width="23.1111111111111" customWidth="1"/>
+    <col min="17" max="17" width="23.125" customWidth="1"/>
     <col min="18" max="18" width="13" customWidth="1"/>
-    <col min="19" max="19" width="10.7777777777778" customWidth="1"/>
-    <col min="20" max="20" width="14.1111111111111" customWidth="1"/>
-    <col min="21" max="21" width="7.66666666666667" customWidth="1"/>
-    <col min="22" max="23" width="11.8888888888889" customWidth="1"/>
-    <col min="24" max="24" width="10.7777777777778" customWidth="1"/>
-    <col min="25" max="25" width="11.8888888888889" customWidth="1"/>
-    <col min="26" max="26" width="16.4444444444444" customWidth="1"/>
-    <col min="27" max="27" width="9.66666666666667" customWidth="1"/>
+    <col min="19" max="19" width="10.75" customWidth="1"/>
+    <col min="20" max="20" width="14.125" customWidth="1"/>
+    <col min="21" max="21" width="7.625" customWidth="1"/>
+    <col min="22" max="23" width="11.875" customWidth="1"/>
+    <col min="24" max="24" width="10.75" customWidth="1"/>
+    <col min="25" max="25" width="11.875" customWidth="1"/>
+    <col min="26" max="26" width="16.5" customWidth="1"/>
+    <col min="27" max="27" width="9.625" customWidth="1"/>
     <col min="28" max="28" width="13" customWidth="1"/>
-    <col min="29" max="29" width="8.66666666666667" customWidth="1"/>
-    <col min="30" max="30" width="11.8888888888889" customWidth="1"/>
-    <col min="31" max="31" width="14.1111111111111" customWidth="1"/>
-    <col min="32" max="32" width="7.66666666666667" customWidth="1"/>
-    <col min="33" max="33" width="9.66666666666667" customWidth="1"/>
+    <col min="29" max="29" width="8.625" customWidth="1"/>
+    <col min="30" max="30" width="11.875" customWidth="1"/>
+    <col min="31" max="31" width="14.125" customWidth="1"/>
+    <col min="32" max="32" width="7.625" customWidth="1"/>
+    <col min="33" max="33" width="9.625" customWidth="1"/>
     <col min="34" max="34" width="13" customWidth="1"/>
-    <col min="35" max="35" width="14.1111111111111" customWidth="1"/>
-    <col min="36" max="39" width="10.7777777777778" customWidth="1"/>
-    <col min="40" max="40" width="11.8888888888889" customWidth="1"/>
-    <col min="41" max="41" width="16.4444444444444" customWidth="1"/>
-    <col min="42" max="43" width="11.8888888888889" customWidth="1"/>
-    <col min="44" max="44" width="14.1111111111111" customWidth="1"/>
-    <col min="45" max="45" width="16.4444444444444" customWidth="1"/>
-    <col min="46" max="46" width="14.1111111111111" customWidth="1"/>
-    <col min="47" max="47" width="23.1111111111111" customWidth="1"/>
-    <col min="48" max="48" width="11.8888888888889" customWidth="1"/>
-    <col min="49" max="49" width="5.66666666666667" customWidth="1"/>
-    <col min="50" max="50" width="6.66666666666667" customWidth="1"/>
-    <col min="51" max="52" width="14.1111111111111" customWidth="1"/>
-    <col min="53" max="53" width="8.66666666666667" customWidth="1"/>
-    <col min="54" max="54" width="15.2222222222222" customWidth="1"/>
-    <col min="55" max="55" width="14.1111111111111" customWidth="1"/>
-    <col min="56" max="56" width="20.8888888888889" customWidth="1"/>
+    <col min="35" max="35" width="14.125" customWidth="1"/>
+    <col min="36" max="39" width="10.75" customWidth="1"/>
+    <col min="40" max="40" width="11.875" customWidth="1"/>
+    <col min="41" max="41" width="16.5" customWidth="1"/>
+    <col min="42" max="43" width="11.875" customWidth="1"/>
+    <col min="44" max="44" width="14.125" customWidth="1"/>
+    <col min="45" max="45" width="16.5" customWidth="1"/>
+    <col min="46" max="46" width="14.125" customWidth="1"/>
+    <col min="47" max="47" width="23.125" customWidth="1"/>
+    <col min="48" max="48" width="11.875" customWidth="1"/>
+    <col min="49" max="49" width="5.625" customWidth="1"/>
+    <col min="50" max="50" width="6.625" customWidth="1"/>
+    <col min="51" max="52" width="14.125" customWidth="1"/>
+    <col min="53" max="53" width="8.625" customWidth="1"/>
+    <col min="54" max="54" width="15.25" customWidth="1"/>
+    <col min="55" max="55" width="14.125" customWidth="1"/>
+    <col min="56" max="56" width="20.875" customWidth="1"/>
     <col min="57" max="57" width="13" customWidth="1"/>
-    <col min="58" max="58" width="14.1111111111111" customWidth="1"/>
-    <col min="59" max="59" width="15.2222222222222" customWidth="1"/>
-    <col min="60" max="60" width="10.7777777777778" customWidth="1"/>
-    <col min="61" max="61" width="5.66666666666667" customWidth="1"/>
-    <col min="62" max="62" width="10.7777777777778" customWidth="1"/>
-    <col min="63" max="63" width="9.66666666666667" customWidth="1"/>
-    <col min="64" max="64" width="11.8888888888889" customWidth="1"/>
+    <col min="58" max="58" width="14.125" customWidth="1"/>
+    <col min="59" max="59" width="15.25" customWidth="1"/>
+    <col min="60" max="60" width="10.75" customWidth="1"/>
+    <col min="61" max="61" width="5.625" customWidth="1"/>
+    <col min="62" max="62" width="10.75" customWidth="1"/>
+    <col min="63" max="63" width="9.625" customWidth="1"/>
+    <col min="64" max="64" width="11.875" customWidth="1"/>
     <col min="65" max="65" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:65">
+    <row r="1" spans="1:65" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -6594,210 +6635,210 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>284</v>
+        <v>256</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>24</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>285</v>
+        <v>257</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>286</v>
+        <v>258</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>287</v>
+        <v>259</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>288</v>
+        <v>260</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>289</v>
+        <v>261</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>290</v>
+        <v>262</v>
       </c>
       <c r="S1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>118</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>291</v>
+        <v>263</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>292</v>
+        <v>264</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>293</v>
+        <v>265</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>294</v>
+        <v>266</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>295</v>
+        <v>267</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>296</v>
+        <v>268</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>297</v>
+        <v>269</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>298</v>
+        <v>270</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>299</v>
+        <v>271</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>300</v>
+        <v>272</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>301</v>
+        <v>273</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>302</v>
+        <v>274</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>303</v>
+        <v>275</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>304</v>
+        <v>276</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>305</v>
+        <v>277</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>306</v>
+        <v>278</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>307</v>
+        <v>279</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>308</v>
+        <v>280</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>309</v>
+        <v>281</v>
       </c>
       <c r="AZ1" s="1" t="s">
         <v>69</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>310</v>
+        <v>282</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>311</v>
+        <v>283</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>312</v>
+        <v>284</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>313</v>
+        <v>285</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>314</v>
+        <v>286</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>315</v>
+        <v>287</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>316</v>
+        <v>288</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>317</v>
+        <v>289</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:65">
+    <row r="2" spans="1:65" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>318</v>
+        <v>290</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>83</v>
@@ -6812,132 +6853,132 @@
         <v>83</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>319</v>
+        <v>291</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>320</v>
+        <v>292</v>
       </c>
       <c r="T2" s="1" t="s">
         <v>83</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>321</v>
+        <v>293</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>322</v>
+        <v>294</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>323</v>
+        <v>295</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AD2" s="1" t="s">
-        <v>324</v>
+        <v>296</v>
       </c>
       <c r="AE2" s="1" t="s">
-        <v>325</v>
+        <v>297</v>
       </c>
       <c r="AG2" s="1" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="AH2" s="1" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="AI2" s="1" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="AJ2" s="1" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="AK2" s="1" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="AL2" s="1" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="AM2" s="1" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="AN2" s="1" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="AO2" s="1" t="s">
-        <v>326</v>
+        <v>298</v>
       </c>
       <c r="AQ2" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AR2" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AS2" s="1" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="AT2" s="1" t="s">
-        <v>327</v>
+        <v>299</v>
       </c>
       <c r="AU2" s="1" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="AW2" s="1" t="s">
         <v>83</v>
       </c>
       <c r="AX2" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="AY2" s="1" t="s">
         <v>83</v>
       </c>
       <c r="AZ2" s="1" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="BA2" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BB2" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BC2" s="1" t="s">
         <v>83</v>
       </c>
       <c r="BG2" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="BH2" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="BI2" s="1" t="s">
         <v>83</v>
       </c>
       <c r="BK2" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="BL2" s="1" t="s">
         <v>83</v>
       </c>
       <c r="BM2" s="1" t="s">
-        <v>328</v>
+        <v>300</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:65">
+    <row r="3" spans="1:65" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>318</v>
+        <v>290</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>83</v>
@@ -6946,19 +6987,19 @@
         <v>85</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>329</v>
+        <v>301</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>89</v>
@@ -6970,16 +7011,16 @@
         <v>83</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>319</v>
+        <v>291</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>271</v>
+        <v>251</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>330</v>
+        <v>302</v>
       </c>
       <c r="T3" s="1" t="s">
         <v>83</v>
@@ -6988,114 +7029,114 @@
         <v>85</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>321</v>
+        <v>293</v>
       </c>
       <c r="Z3" s="1" t="s">
-        <v>331</v>
+        <v>303</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>332</v>
+        <v>304</v>
       </c>
       <c r="AB3" s="1" t="s">
-        <v>323</v>
+        <v>295</v>
       </c>
       <c r="AC3" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AD3" s="1" t="s">
-        <v>324</v>
+        <v>296</v>
       </c>
       <c r="AE3" s="1" t="s">
-        <v>325</v>
+        <v>297</v>
       </c>
       <c r="AG3" s="1" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="AH3" s="1" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="AI3" s="1" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="AJ3" s="1" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="AK3" s="1" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="AL3" s="1" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="AM3" s="1" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="AN3" s="1" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="AO3" s="1" t="s">
-        <v>326</v>
+        <v>298</v>
       </c>
       <c r="AQ3" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AR3" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AS3" s="1" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="AT3" s="1" t="s">
-        <v>327</v>
+        <v>299</v>
       </c>
       <c r="AU3" s="1" t="s">
-        <v>271</v>
+        <v>251</v>
       </c>
       <c r="AW3" s="1" t="s">
         <v>83</v>
       </c>
       <c r="AX3" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="AY3" s="1" t="s">
         <v>83</v>
       </c>
       <c r="AZ3" s="1" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="BA3" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BB3" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BG3" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="BH3" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="BI3" s="1" t="s">
         <v>83</v>
       </c>
       <c r="BK3" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="BL3" s="1" t="s">
         <v>83</v>
       </c>
       <c r="BM3" s="1" t="s">
-        <v>333</v>
+        <v>305</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:65">
+    <row r="4" spans="1:65" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>318</v>
+        <v>290</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>83</v>
@@ -7104,16 +7145,16 @@
         <v>85</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>83</v>
@@ -7128,16 +7169,16 @@
         <v>83</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>319</v>
+        <v>291</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>334</v>
+        <v>306</v>
       </c>
       <c r="T4" s="1" t="s">
         <v>83</v>
@@ -7146,117 +7187,117 @@
         <v>85</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>321</v>
+        <v>293</v>
       </c>
       <c r="Z4" s="1" t="s">
-        <v>331</v>
+        <v>303</v>
       </c>
       <c r="AA4" s="1" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="AB4" s="1" t="s">
-        <v>323</v>
+        <v>295</v>
       </c>
       <c r="AC4" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AD4" s="1" t="s">
-        <v>324</v>
+        <v>296</v>
       </c>
       <c r="AE4" s="1" t="s">
-        <v>325</v>
+        <v>297</v>
       </c>
       <c r="AG4" s="1" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="AH4" s="1" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="AI4" s="1" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="AJ4" s="1" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="AK4" s="1" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="AL4" s="1" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="AM4" s="1" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="AN4" s="1" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="AO4" s="1" t="s">
-        <v>326</v>
+        <v>298</v>
       </c>
       <c r="AQ4" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AR4" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AS4" s="1" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="AT4" s="1" t="s">
-        <v>327</v>
+        <v>299</v>
       </c>
       <c r="AU4" s="1" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="AW4" s="1" t="s">
         <v>83</v>
       </c>
       <c r="AX4" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="AY4" s="1" t="s">
         <v>83</v>
       </c>
       <c r="AZ4" s="1" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="BA4" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BB4" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BC4" s="1" t="s">
         <v>83</v>
       </c>
       <c r="BG4" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="BH4" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="BI4" s="1" t="s">
         <v>83</v>
       </c>
       <c r="BK4" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="BL4" s="1" t="s">
         <v>83</v>
       </c>
       <c r="BM4" s="1" t="s">
-        <v>328</v>
+        <v>300</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" spans="1:64">
+    <row r="5" spans="1:65" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>318</v>
+        <v>290</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>83</v>
@@ -7265,22 +7306,22 @@
         <v>85</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>278</v>
+        <v>254</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>329</v>
+        <v>301</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>277</v>
+        <v>253</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>83</v>
@@ -7289,16 +7330,16 @@
         <v>83</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>319</v>
+        <v>291</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>335</v>
+        <v>307</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>336</v>
+        <v>308</v>
       </c>
       <c r="T5" s="1" t="s">
         <v>83</v>
@@ -7307,132 +7348,132 @@
         <v>85</v>
       </c>
       <c r="W5" s="1" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="X5" s="1" t="s">
-        <v>321</v>
+        <v>293</v>
       </c>
       <c r="Y5" s="1" t="s">
-        <v>337</v>
+        <v>309</v>
       </c>
       <c r="Z5" s="1" t="s">
-        <v>331</v>
+        <v>303</v>
       </c>
       <c r="AA5" s="1" t="s">
-        <v>332</v>
+        <v>304</v>
       </c>
       <c r="AB5" s="1" t="s">
-        <v>323</v>
+        <v>295</v>
       </c>
       <c r="AC5" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AD5" s="1" t="s">
-        <v>324</v>
+        <v>296</v>
       </c>
       <c r="AE5" s="1" t="s">
-        <v>325</v>
+        <v>297</v>
       </c>
       <c r="AG5" s="1" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="AH5" s="1" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="AI5" s="1" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="AJ5" s="1" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="AK5" s="1" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="AL5" s="1" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="AM5" s="1" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="AN5" s="1" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="AQ5" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AR5" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AS5" s="1" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="AT5" s="1" t="s">
-        <v>327</v>
+        <v>299</v>
       </c>
       <c r="AU5" s="1" t="s">
-        <v>335</v>
+        <v>307</v>
       </c>
       <c r="AW5" s="1" t="s">
         <v>83</v>
       </c>
       <c r="AX5" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="AY5" s="1" t="s">
         <v>83</v>
       </c>
       <c r="AZ5" s="1" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="BA5" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BB5" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BD5" s="1" t="s">
-        <v>338</v>
+        <v>310</v>
       </c>
       <c r="BG5" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="BH5" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="BI5" s="1" t="s">
         <v>83</v>
       </c>
       <c r="BK5" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="BL5" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="1:65">
+    <row r="6" spans="1:65" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>318</v>
+        <v>290</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>83</v>
@@ -7447,132 +7488,132 @@
         <v>83</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>319</v>
+        <v>291</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>339</v>
+        <v>311</v>
       </c>
       <c r="T6" s="1" t="s">
         <v>83</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>321</v>
+        <v>293</v>
       </c>
       <c r="AA6" s="1" t="s">
-        <v>322</v>
+        <v>294</v>
       </c>
       <c r="AB6" s="1" t="s">
-        <v>323</v>
+        <v>295</v>
       </c>
       <c r="AC6" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AD6" s="1" t="s">
-        <v>340</v>
+        <v>312</v>
       </c>
       <c r="AE6" s="1" t="s">
-        <v>325</v>
+        <v>297</v>
       </c>
       <c r="AG6" s="1" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="AH6" s="1" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="AI6" s="1" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="AJ6" s="1" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="AK6" s="1" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="AL6" s="1" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="AM6" s="1" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="AN6" s="1" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="AO6" s="1" t="s">
-        <v>326</v>
+        <v>298</v>
       </c>
       <c r="AQ6" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AR6" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AS6" s="1" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="AT6" s="1" t="s">
-        <v>327</v>
+        <v>299</v>
       </c>
       <c r="AU6" s="1" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="AW6" s="1" t="s">
         <v>83</v>
       </c>
       <c r="AX6" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="AY6" s="1" t="s">
         <v>83</v>
       </c>
       <c r="AZ6" s="1" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="BA6" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BB6" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BC6" s="1" t="s">
         <v>83</v>
       </c>
       <c r="BG6" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="BH6" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="BI6" s="1" t="s">
         <v>83</v>
       </c>
       <c r="BK6" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="BL6" s="1" t="s">
         <v>83</v>
       </c>
       <c r="BM6" s="1" t="s">
-        <v>328</v>
+        <v>300</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" spans="1:65">
+    <row r="7" spans="1:65" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>318</v>
+        <v>290</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>83</v>
@@ -7584,16 +7625,16 @@
         <v>87</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>332</v>
+        <v>304</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>89</v>
@@ -7605,16 +7646,16 @@
         <v>83</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>319</v>
+        <v>291</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>271</v>
+        <v>251</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>341</v>
+        <v>313</v>
       </c>
       <c r="T7" s="1" t="s">
         <v>83</v>
@@ -7623,114 +7664,114 @@
         <v>85</v>
       </c>
       <c r="W7" s="1" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="X7" s="1" t="s">
-        <v>321</v>
+        <v>293</v>
       </c>
       <c r="Z7" s="1" t="s">
-        <v>331</v>
+        <v>303</v>
       </c>
       <c r="AA7" s="1" t="s">
-        <v>332</v>
+        <v>304</v>
       </c>
       <c r="AB7" s="1" t="s">
-        <v>323</v>
+        <v>295</v>
       </c>
       <c r="AC7" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AD7" s="1" t="s">
-        <v>340</v>
+        <v>312</v>
       </c>
       <c r="AE7" s="1" t="s">
-        <v>325</v>
+        <v>297</v>
       </c>
       <c r="AG7" s="1" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="AH7" s="1" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="AI7" s="1" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="AJ7" s="1" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="AK7" s="1" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="AL7" s="1" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="AM7" s="1" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="AN7" s="1" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="AO7" s="1" t="s">
-        <v>326</v>
+        <v>298</v>
       </c>
       <c r="AQ7" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AR7" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AS7" s="1" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="AT7" s="1" t="s">
-        <v>327</v>
+        <v>299</v>
       </c>
       <c r="AU7" s="1" t="s">
-        <v>271</v>
+        <v>251</v>
       </c>
       <c r="AW7" s="1" t="s">
         <v>83</v>
       </c>
       <c r="AX7" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="AY7" s="1" t="s">
         <v>83</v>
       </c>
       <c r="AZ7" s="1" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="BA7" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BB7" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BG7" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="BH7" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="BI7" s="1" t="s">
         <v>83</v>
       </c>
       <c r="BK7" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="BL7" s="1" t="s">
         <v>83</v>
       </c>
       <c r="BM7" s="1" t="s">
-        <v>333</v>
+        <v>305</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" spans="1:65">
+    <row r="8" spans="1:65" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>318</v>
+        <v>290</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>83</v>
@@ -7739,16 +7780,16 @@
         <v>85</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>83</v>
@@ -7763,16 +7804,16 @@
         <v>83</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>319</v>
+        <v>291</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>342</v>
+        <v>314</v>
       </c>
       <c r="T8" s="1" t="s">
         <v>83</v>
@@ -7781,117 +7822,117 @@
         <v>85</v>
       </c>
       <c r="W8" s="1" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="X8" s="1" t="s">
-        <v>321</v>
+        <v>293</v>
       </c>
       <c r="Z8" s="1" t="s">
-        <v>331</v>
+        <v>303</v>
       </c>
       <c r="AA8" s="1" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="AB8" s="1" t="s">
-        <v>323</v>
+        <v>295</v>
       </c>
       <c r="AC8" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AD8" s="1" t="s">
-        <v>340</v>
+        <v>312</v>
       </c>
       <c r="AE8" s="1" t="s">
-        <v>325</v>
+        <v>297</v>
       </c>
       <c r="AG8" s="1" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="AH8" s="1" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="AI8" s="1" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="AJ8" s="1" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="AK8" s="1" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="AL8" s="1" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="AM8" s="1" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="AN8" s="1" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="AO8" s="1" t="s">
-        <v>326</v>
+        <v>298</v>
       </c>
       <c r="AQ8" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AR8" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AS8" s="1" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="AT8" s="1" t="s">
-        <v>327</v>
+        <v>299</v>
       </c>
       <c r="AU8" s="1" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="AW8" s="1" t="s">
         <v>83</v>
       </c>
       <c r="AX8" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="AY8" s="1" t="s">
         <v>83</v>
       </c>
       <c r="AZ8" s="1" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="BA8" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BB8" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BC8" s="1" t="s">
         <v>83</v>
       </c>
       <c r="BG8" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="BH8" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="BI8" s="1" t="s">
         <v>83</v>
       </c>
       <c r="BK8" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="BL8" s="1" t="s">
         <v>83</v>
       </c>
       <c r="BM8" s="1" t="s">
-        <v>328</v>
+        <v>300</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" spans="1:64">
+    <row r="9" spans="1:65" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>318</v>
+        <v>290</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>83</v>
@@ -7903,19 +7944,19 @@
         <v>87</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>278</v>
+        <v>254</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>332</v>
+        <v>304</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>277</v>
+        <v>253</v>
       </c>
       <c r="M9" s="1" t="s">
         <v>83</v>
@@ -7924,16 +7965,16 @@
         <v>83</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>319</v>
+        <v>291</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>335</v>
+        <v>307</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>343</v>
+        <v>315</v>
       </c>
       <c r="T9" s="1" t="s">
         <v>83</v>
@@ -7942,120 +7983,113 @@
         <v>85</v>
       </c>
       <c r="W9" s="1" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="X9" s="1" t="s">
-        <v>321</v>
+        <v>293</v>
       </c>
       <c r="Y9" s="1" t="s">
-        <v>337</v>
+        <v>309</v>
       </c>
       <c r="Z9" s="1" t="s">
-        <v>331</v>
+        <v>303</v>
       </c>
       <c r="AA9" s="1" t="s">
-        <v>332</v>
+        <v>304</v>
       </c>
       <c r="AB9" s="1" t="s">
-        <v>323</v>
+        <v>295</v>
       </c>
       <c r="AC9" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AD9" s="1" t="s">
-        <v>340</v>
+        <v>312</v>
       </c>
       <c r="AE9" s="1" t="s">
-        <v>325</v>
+        <v>297</v>
       </c>
       <c r="AG9" s="1" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="AH9" s="1" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="AI9" s="1" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="AJ9" s="1" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="AK9" s="1" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="AL9" s="1" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="AM9" s="1" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="AN9" s="1" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="AQ9" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AR9" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AS9" s="1" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="AT9" s="1" t="s">
-        <v>327</v>
+        <v>299</v>
       </c>
       <c r="AU9" s="1" t="s">
-        <v>335</v>
+        <v>307</v>
       </c>
       <c r="AW9" s="1" t="s">
         <v>83</v>
       </c>
       <c r="AX9" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="AY9" s="1" t="s">
         <v>83</v>
       </c>
       <c r="AZ9" s="1" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="BA9" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BB9" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BD9" s="1" t="s">
-        <v>338</v>
+        <v>310</v>
       </c>
       <c r="BG9" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="BH9" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="BI9" s="1" t="s">
         <v>83</v>
       </c>
       <c r="BK9" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="BL9" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1"/>
-    <row r="11" s="1" customFormat="1"/>
-    <row r="12" s="1" customFormat="1"/>
-    <row r="13" s="1" customFormat="1"/>
-    <row r="14" s="1" customFormat="1"/>
-    <row r="15" s="1" customFormat="1"/>
+    <row r="10" spans="1:65" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
-  <autoFilter ref="A1:BM9">
-    <extLst/>
-  </autoFilter>
+  <autoFilter ref="A1:BM9"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/用例数据/沪A/定向可转债/转股/测试结果.xlsx
+++ b/用例数据/沪A/定向可转债/转股/测试结果.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25860" windowHeight="12210"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25860" windowHeight="12210" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="stklist" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2093" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2101" uniqueCount="351">
   <si>
     <t>EXCHID</t>
   </si>
@@ -1075,6 +1075,10 @@
   </si>
   <si>
     <t>000006908351</t>
+  </si>
+  <si>
+    <t>CCB1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1426,7 +1430,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CH12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -3334,8 +3338,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EI14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3901,6 +3905,9 @@
       <c r="F2" s="1" t="s">
         <v>83</v>
       </c>
+      <c r="I2" s="1" t="s">
+        <v>350</v>
+      </c>
       <c r="J2" s="1" t="s">
         <v>84</v>
       </c>
@@ -4230,6 +4237,9 @@
       <c r="F3" s="1" t="s">
         <v>83</v>
       </c>
+      <c r="I3" s="1" t="s">
+        <v>350</v>
+      </c>
       <c r="J3" s="1" t="s">
         <v>84</v>
       </c>
@@ -4559,6 +4569,9 @@
       <c r="F4" s="1" t="s">
         <v>83</v>
       </c>
+      <c r="I4" s="1" t="s">
+        <v>350</v>
+      </c>
       <c r="J4" s="1" t="s">
         <v>84</v>
       </c>
@@ -4888,6 +4901,9 @@
       <c r="F5" s="1" t="s">
         <v>83</v>
       </c>
+      <c r="I5" s="1" t="s">
+        <v>350</v>
+      </c>
       <c r="J5" s="1" t="s">
         <v>84</v>
       </c>
@@ -5217,6 +5233,9 @@
       <c r="F6" s="1" t="s">
         <v>83</v>
       </c>
+      <c r="I6" s="1" t="s">
+        <v>350</v>
+      </c>
       <c r="J6" s="1" t="s">
         <v>84</v>
       </c>
@@ -5546,6 +5565,9 @@
       <c r="F7" s="1" t="s">
         <v>83</v>
       </c>
+      <c r="I7" s="1" t="s">
+        <v>350</v>
+      </c>
       <c r="J7" s="1" t="s">
         <v>84</v>
       </c>
@@ -5875,6 +5897,9 @@
       <c r="F8" s="1" t="s">
         <v>83</v>
       </c>
+      <c r="I8" s="1" t="s">
+        <v>350</v>
+      </c>
       <c r="J8" s="1" t="s">
         <v>99</v>
       </c>
@@ -6203,6 +6228,9 @@
       </c>
       <c r="F9" s="1" t="s">
         <v>83</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>350</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>99</v>

--- a/用例数据/沪A/定向可转债/转股/测试结果.xlsx
+++ b/用例数据/沪A/定向可转债/转股/测试结果.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25860" windowHeight="12210" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25860" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="stklist" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2093" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2093" uniqueCount="350">
   <si>
     <t>EXCHID</t>
   </si>
@@ -987,9 +987,6 @@
     <t>12.5100</t>
   </si>
   <si>
-    <t>17.76000000</t>
-  </si>
-  <si>
     <t>1371800.1600</t>
   </si>
   <si>
@@ -1002,88 +999,82 @@
     <t>404199.8400</t>
   </si>
   <si>
-    <t>-1371800.160</t>
-  </si>
-  <si>
     <t>ADJUSTEDFEEFLAG</t>
   </si>
   <si>
     <t>OTHERFEE4</t>
   </si>
   <si>
-    <t>30052574</t>
-  </si>
-  <si>
-    <t>20221007203501</t>
-  </si>
-  <si>
-    <t>20221007000000</t>
-  </si>
-  <si>
-    <t>999736737.780</t>
-  </si>
-  <si>
     <t>A2</t>
   </si>
   <si>
-    <t>000006907504</t>
-  </si>
-  <si>
-    <t>30052581</t>
-  </si>
-  <si>
-    <t>999736740.530</t>
-  </si>
-  <si>
-    <t>000006907511</t>
-  </si>
-  <si>
-    <t>20221010000000</t>
-  </si>
-  <si>
-    <t>011</t>
-  </si>
-  <si>
-    <t>30052577</t>
-  </si>
-  <si>
     <t>10049000.000</t>
   </si>
   <si>
-    <t>000006907507</t>
-  </si>
-  <si>
-    <t>30052578</t>
-  </si>
-  <si>
-    <t>000006907508</t>
-  </si>
-  <si>
-    <t>30052573</t>
-  </si>
-  <si>
-    <t>000006907503</t>
-  </si>
-  <si>
-    <t>30052572</t>
-  </si>
-  <si>
-    <t>000006907502</t>
-  </si>
-  <si>
-    <t>30052582</t>
-  </si>
-  <si>
-    <t>999736743.280</t>
-  </si>
-  <si>
-    <t>000006907512</t>
-  </si>
-  <si>
-    <t>30052575</t>
-  </si>
-  <si>
-    <t>000006907505</t>
+    <t>30052658</t>
+  </si>
+  <si>
+    <t>20221011231452</t>
+  </si>
+  <si>
+    <t>20221011000000</t>
+  </si>
+  <si>
+    <t>999730748.030</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>000006908354</t>
+  </si>
+  <si>
+    <t>30052660</t>
+  </si>
+  <si>
+    <t>000006908356</t>
+  </si>
+  <si>
+    <t>30052661</t>
+  </si>
+  <si>
+    <t>000006908357</t>
+  </si>
+  <si>
+    <t>30052662</t>
+  </si>
+  <si>
+    <t>999730750.780</t>
+  </si>
+  <si>
+    <t>000006908358</t>
+  </si>
+  <si>
+    <t>30052656</t>
+  </si>
+  <si>
+    <t>999730745.280</t>
+  </si>
+  <si>
+    <t>000006908352</t>
+  </si>
+  <si>
+    <t>30052657</t>
+  </si>
+  <si>
+    <t>000006908353</t>
+  </si>
+  <si>
+    <t>30052659</t>
+  </si>
+  <si>
+    <t>000006908355</t>
+  </si>
+  <si>
+    <t>30052655</t>
+  </si>
+  <si>
+    <t>000006908351</t>
   </si>
 </sst>
 </file>
@@ -1101,6 +1092,7 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1432,10 +1424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CH20"/>
+  <dimension ref="A1:CH12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2578,10 +2570,10 @@
         <v>234</v>
       </c>
       <c r="K5" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="L5" s="1" t="s">
         <v>320</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>321</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>90</v>
@@ -2626,7 +2618,7 @@
         <v>239</v>
       </c>
       <c r="AA5" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AB5" s="1" t="s">
         <v>83</v>
@@ -2746,10 +2738,10 @@
         <v>83</v>
       </c>
       <c r="BO5" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="BP5" s="1" t="s">
         <v>320</v>
-      </c>
-      <c r="BP5" s="1" t="s">
-        <v>321</v>
       </c>
       <c r="BQ5" s="1" t="s">
         <v>90</v>
@@ -2841,7 +2833,7 @@
         <v>89</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>90</v>
@@ -3009,7 +3001,7 @@
         <v>89</v>
       </c>
       <c r="BP6" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BQ6" s="1" t="s">
         <v>90</v>
@@ -3101,10 +3093,10 @@
         <v>89</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>325</v>
+        <v>90</v>
       </c>
       <c r="N7" s="1" t="s">
         <v>248</v>
@@ -3146,7 +3138,7 @@
         <v>239</v>
       </c>
       <c r="AA7" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AB7" s="1" t="s">
         <v>83</v>
@@ -3269,10 +3261,10 @@
         <v>89</v>
       </c>
       <c r="BP7" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="BQ7" s="1" t="s">
-        <v>325</v>
+        <v>90</v>
       </c>
       <c r="BR7" s="1" t="s">
         <v>96</v>
@@ -3331,33 +3323,26 @@
     <row r="10" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="11" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="12" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="13" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="15" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="16" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="20" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:EI22"/>
+  <dimension ref="A1:EI14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11.875" customWidth="1"/>
     <col min="2" max="3" width="16.5" customWidth="1"/>
-    <col min="4" max="4" width="7.625" customWidth="1"/>
+    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
     <col min="6" max="6" width="15.25" customWidth="1"/>
     <col min="7" max="7" width="7.625" customWidth="1"/>
@@ -3888,13 +3873,13 @@
         <v>282</v>
       </c>
       <c r="EG1" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="EH1" s="1" t="s">
         <v>270</v>
       </c>
       <c r="EI1" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="2" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -3902,7 +3887,7 @@
         <v>328</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>230</v>
+        <v>252</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>91</v>
@@ -3929,13 +3914,13 @@
         <v>85</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>93</v>
@@ -3953,25 +3938,25 @@
         <v>233</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>89</v>
+        <v>253</v>
       </c>
       <c r="X2" s="1" t="s">
         <v>330</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>90</v>
+        <v>254</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>90</v>
+        <v>254</v>
       </c>
       <c r="AA2" s="1" t="s">
         <v>331</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>234</v>
+        <v>250</v>
       </c>
       <c r="AC2" s="1" t="s">
         <v>90</v>
@@ -4016,7 +4001,7 @@
         <v>236</v>
       </c>
       <c r="AQ2" s="1" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="AR2" s="1" t="s">
         <v>84</v>
@@ -4058,13 +4043,13 @@
         <v>83</v>
       </c>
       <c r="BH2" s="1" t="s">
-        <v>241</v>
+        <v>255</v>
       </c>
       <c r="BI2" s="1" t="s">
         <v>89</v>
       </c>
       <c r="BJ2" s="1" t="s">
-        <v>90</v>
+        <v>254</v>
       </c>
       <c r="BL2" s="1" t="s">
         <v>90</v>
@@ -4103,7 +4088,7 @@
         <v>240</v>
       </c>
       <c r="BZ2" s="1" t="s">
-        <v>83</v>
+        <v>332</v>
       </c>
       <c r="CA2" s="1" t="s">
         <v>90</v>
@@ -4231,7 +4216,7 @@
         <v>334</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>230</v>
+        <v>247</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>91</v>
@@ -4258,13 +4243,13 @@
         <v>85</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q3" s="1" t="s">
         <v>93</v>
@@ -4282,10 +4267,10 @@
         <v>233</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>320</v>
+        <v>89</v>
       </c>
       <c r="X3" s="1" t="s">
         <v>330</v>
@@ -4297,10 +4282,10 @@
         <v>90</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="AB3" s="1" t="s">
-        <v>234</v>
+        <v>250</v>
       </c>
       <c r="AC3" s="1" t="s">
         <v>90</v>
@@ -4345,7 +4330,7 @@
         <v>236</v>
       </c>
       <c r="AQ3" s="1" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="AR3" s="1" t="s">
         <v>84</v>
@@ -4387,7 +4372,7 @@
         <v>83</v>
       </c>
       <c r="BH3" s="1" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="BI3" s="1" t="s">
         <v>89</v>
@@ -4432,7 +4417,7 @@
         <v>240</v>
       </c>
       <c r="BZ3" s="1" t="s">
-        <v>83</v>
+        <v>332</v>
       </c>
       <c r="CA3" s="1" t="s">
         <v>90</v>
@@ -4450,13 +4435,13 @@
         <v>83</v>
       </c>
       <c r="CH3" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="CJ3" s="1" t="s">
         <v>231</v>
       </c>
       <c r="CK3" s="1" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="CL3" s="1" t="s">
         <v>95</v>
@@ -4549,7 +4534,7 @@
         <v>83</v>
       </c>
       <c r="EH3" s="1" t="s">
-        <v>338</v>
+        <v>297</v>
       </c>
       <c r="EI3" s="1" t="s">
         <v>95</v>
@@ -4557,10 +4542,10 @@
     </row>
     <row r="4" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>247</v>
+        <v>230</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>91</v>
@@ -4575,7 +4560,7 @@
         <v>83</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>86</v>
@@ -4584,7 +4569,7 @@
         <v>103</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>104</v>
@@ -4614,7 +4599,7 @@
         <v>234</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>320</v>
+        <v>89</v>
       </c>
       <c r="X4" s="1" t="s">
         <v>330</v>
@@ -4626,10 +4611,10 @@
         <v>90</v>
       </c>
       <c r="AA4" s="1" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="AB4" s="1" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="AC4" s="1" t="s">
         <v>90</v>
@@ -4674,10 +4659,10 @@
         <v>236</v>
       </c>
       <c r="AQ4" s="1" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="AR4" s="1" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="AS4" s="1" t="s">
         <v>86</v>
@@ -4761,7 +4746,7 @@
         <v>240</v>
       </c>
       <c r="BZ4" s="1" t="s">
-        <v>83</v>
+        <v>332</v>
       </c>
       <c r="CA4" s="1" t="s">
         <v>90</v>
@@ -4779,13 +4764,13 @@
         <v>83</v>
       </c>
       <c r="CH4" s="1" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="CJ4" s="1" t="s">
         <v>231</v>
       </c>
       <c r="CK4" s="1" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="CL4" s="1" t="s">
         <v>95</v>
@@ -4878,7 +4863,7 @@
         <v>83</v>
       </c>
       <c r="EH4" s="1" t="s">
-        <v>338</v>
+        <v>297</v>
       </c>
       <c r="EI4" s="1" t="s">
         <v>95</v>
@@ -4886,10 +4871,10 @@
     </row>
     <row r="5" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>91</v>
@@ -4943,19 +4928,19 @@
         <v>249</v>
       </c>
       <c r="W5" s="1" t="s">
-        <v>89</v>
+        <v>253</v>
       </c>
       <c r="X5" s="1" t="s">
         <v>330</v>
       </c>
       <c r="Y5" s="1" t="s">
-        <v>90</v>
+        <v>254</v>
       </c>
       <c r="Z5" s="1" t="s">
-        <v>90</v>
+        <v>254</v>
       </c>
       <c r="AA5" s="1" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="AB5" s="1" t="s">
         <v>250</v>
@@ -5003,7 +4988,7 @@
         <v>236</v>
       </c>
       <c r="AQ5" s="1" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="AR5" s="1" t="s">
         <v>84</v>
@@ -5045,13 +5030,13 @@
         <v>83</v>
       </c>
       <c r="BH5" s="1" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="BI5" s="1" t="s">
         <v>89</v>
       </c>
       <c r="BJ5" s="1" t="s">
-        <v>90</v>
+        <v>254</v>
       </c>
       <c r="BL5" s="1" t="s">
         <v>90</v>
@@ -5090,7 +5075,7 @@
         <v>240</v>
       </c>
       <c r="BZ5" s="1" t="s">
-        <v>83</v>
+        <v>332</v>
       </c>
       <c r="CA5" s="1" t="s">
         <v>90</v>
@@ -5108,13 +5093,13 @@
         <v>83</v>
       </c>
       <c r="CH5" s="1" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="CJ5" s="1" t="s">
         <v>231</v>
       </c>
       <c r="CK5" s="1" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="CL5" s="1" t="s">
         <v>95</v>
@@ -5207,7 +5192,7 @@
         <v>83</v>
       </c>
       <c r="EH5" s="1" t="s">
-        <v>338</v>
+        <v>297</v>
       </c>
       <c r="EI5" s="1" t="s">
         <v>95</v>
@@ -5215,7 +5200,7 @@
     </row>
     <row r="6" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>247</v>
@@ -5284,7 +5269,7 @@
         <v>90</v>
       </c>
       <c r="AA6" s="1" t="s">
-        <v>331</v>
+        <v>342</v>
       </c>
       <c r="AB6" s="1" t="s">
         <v>250</v>
@@ -5332,7 +5317,7 @@
         <v>236</v>
       </c>
       <c r="AQ6" s="1" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="AR6" s="1" t="s">
         <v>84</v>
@@ -5419,7 +5404,7 @@
         <v>240</v>
       </c>
       <c r="BZ6" s="1" t="s">
-        <v>83</v>
+        <v>332</v>
       </c>
       <c r="CA6" s="1" t="s">
         <v>90</v>
@@ -5437,7 +5422,7 @@
         <v>83</v>
       </c>
       <c r="CH6" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="CJ6" s="1" t="s">
         <v>231</v>
@@ -5544,10 +5529,10 @@
     </row>
     <row r="7" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>247</v>
+        <v>230</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>91</v>
@@ -5562,7 +5547,7 @@
         <v>83</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>86</v>
@@ -5571,7 +5556,7 @@
         <v>103</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="N7" s="1" t="s">
         <v>101</v>
@@ -5613,10 +5598,10 @@
         <v>90</v>
       </c>
       <c r="AA7" s="1" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="AB7" s="1" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="AC7" s="1" t="s">
         <v>90</v>
@@ -5661,10 +5646,10 @@
         <v>236</v>
       </c>
       <c r="AQ7" s="1" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="AR7" s="1" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="AS7" s="1" t="s">
         <v>86</v>
@@ -5748,7 +5733,7 @@
         <v>240</v>
       </c>
       <c r="BZ7" s="1" t="s">
-        <v>83</v>
+        <v>332</v>
       </c>
       <c r="CA7" s="1" t="s">
         <v>90</v>
@@ -5766,7 +5751,7 @@
         <v>83</v>
       </c>
       <c r="CH7" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="CJ7" s="1" t="s">
         <v>231</v>
@@ -5873,10 +5858,10 @@
     </row>
     <row r="8" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>91</v>
@@ -5891,7 +5876,7 @@
         <v>83</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>86</v>
@@ -5900,16 +5885,16 @@
         <v>103</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Q8" s="1" t="s">
         <v>93</v>
@@ -5927,25 +5912,25 @@
         <v>233</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="W8" s="1" t="s">
-        <v>253</v>
+        <v>89</v>
       </c>
       <c r="X8" s="1" t="s">
         <v>330</v>
       </c>
       <c r="Y8" s="1" t="s">
-        <v>254</v>
+        <v>90</v>
       </c>
       <c r="Z8" s="1" t="s">
-        <v>254</v>
+        <v>90</v>
       </c>
       <c r="AA8" s="1" t="s">
-        <v>349</v>
+        <v>327</v>
       </c>
       <c r="AB8" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AC8" s="1" t="s">
         <v>90</v>
@@ -5990,10 +5975,10 @@
         <v>236</v>
       </c>
       <c r="AQ8" s="1" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="AR8" s="1" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="AS8" s="1" t="s">
         <v>86</v>
@@ -6032,13 +6017,13 @@
         <v>83</v>
       </c>
       <c r="BH8" s="1" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
       <c r="BI8" s="1" t="s">
         <v>89</v>
       </c>
       <c r="BJ8" s="1" t="s">
-        <v>254</v>
+        <v>90</v>
       </c>
       <c r="BL8" s="1" t="s">
         <v>90</v>
@@ -6077,7 +6062,7 @@
         <v>240</v>
       </c>
       <c r="BZ8" s="1" t="s">
-        <v>83</v>
+        <v>332</v>
       </c>
       <c r="CA8" s="1" t="s">
         <v>90</v>
@@ -6095,13 +6080,13 @@
         <v>83</v>
       </c>
       <c r="CH8" s="1" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="CJ8" s="1" t="s">
         <v>231</v>
       </c>
       <c r="CK8" s="1" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="CL8" s="1" t="s">
         <v>95</v>
@@ -6194,7 +6179,7 @@
         <v>83</v>
       </c>
       <c r="EH8" s="1" t="s">
-        <v>338</v>
+        <v>297</v>
       </c>
       <c r="EI8" s="1" t="s">
         <v>95</v>
@@ -6202,10 +6187,10 @@
     </row>
     <row r="9" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>91</v>
@@ -6220,7 +6205,7 @@
         <v>83</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>86</v>
@@ -6229,16 +6214,16 @@
         <v>103</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Q9" s="1" t="s">
         <v>93</v>
@@ -6256,25 +6241,25 @@
         <v>233</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="W9" s="1" t="s">
-        <v>253</v>
+        <v>89</v>
       </c>
       <c r="X9" s="1" t="s">
         <v>330</v>
       </c>
       <c r="Y9" s="1" t="s">
-        <v>254</v>
+        <v>90</v>
       </c>
       <c r="Z9" s="1" t="s">
-        <v>254</v>
+        <v>90</v>
       </c>
       <c r="AA9" s="1" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="AB9" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AC9" s="1" t="s">
         <v>90</v>
@@ -6319,10 +6304,10 @@
         <v>236</v>
       </c>
       <c r="AQ9" s="1" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="AR9" s="1" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="AS9" s="1" t="s">
         <v>86</v>
@@ -6361,13 +6346,13 @@
         <v>83</v>
       </c>
       <c r="BH9" s="1" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
       <c r="BI9" s="1" t="s">
         <v>89</v>
       </c>
       <c r="BJ9" s="1" t="s">
-        <v>254</v>
+        <v>90</v>
       </c>
       <c r="BL9" s="1" t="s">
         <v>90</v>
@@ -6406,7 +6391,7 @@
         <v>240</v>
       </c>
       <c r="BZ9" s="1" t="s">
-        <v>83</v>
+        <v>332</v>
       </c>
       <c r="CA9" s="1" t="s">
         <v>90</v>
@@ -6424,7 +6409,7 @@
         <v>83</v>
       </c>
       <c r="CH9" s="1" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="CJ9" s="1" t="s">
         <v>231</v>
@@ -6534,18 +6519,11 @@
     <row r="12" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="13" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="14" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="15" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="16" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="20" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="21" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="22" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <autoFilter ref="A1:EC9"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6553,8 +6531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BM10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/用例数据/沪A/定向可转债/转股/测试结果.xlsx
+++ b/用例数据/沪A/定向可转债/转股/测试结果.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25860" windowHeight="12210" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25860" windowHeight="12216" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="stklist" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2101" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2101" uniqueCount="352">
   <si>
     <t>EXCHID</t>
   </si>
@@ -1005,9 +1005,6 @@
     <t>OTHERFEE4</t>
   </si>
   <si>
-    <t>A2</t>
-  </si>
-  <si>
     <t>10049000.000</t>
   </si>
   <si>
@@ -1078,6 +1075,27 @@
   </si>
   <si>
     <t>CCB1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>9999</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>9</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1085,7 +1103,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1095,6 +1113,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -1121,9 +1147,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1434,84 +1461,84 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.625" customWidth="1"/>
-    <col min="2" max="3" width="14.125" customWidth="1"/>
-    <col min="4" max="4" width="11.875" customWidth="1"/>
-    <col min="5" max="5" width="14.125" customWidth="1"/>
-    <col min="6" max="6" width="11.875" customWidth="1"/>
-    <col min="7" max="7" width="7.625" customWidth="1"/>
-    <col min="8" max="8" width="9.625" customWidth="1"/>
-    <col min="9" max="9" width="20.875" customWidth="1"/>
+    <col min="1" max="1" width="7.6640625" customWidth="1"/>
+    <col min="2" max="3" width="14.109375" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" customWidth="1"/>
+    <col min="5" max="5" width="14.109375" customWidth="1"/>
+    <col min="6" max="6" width="11.88671875" customWidth="1"/>
+    <col min="7" max="7" width="7.6640625" customWidth="1"/>
+    <col min="8" max="8" width="9.6640625" customWidth="1"/>
+    <col min="9" max="9" width="20.88671875" customWidth="1"/>
     <col min="10" max="10" width="13" customWidth="1"/>
-    <col min="11" max="11" width="14.125" customWidth="1"/>
-    <col min="12" max="13" width="16.5" customWidth="1"/>
-    <col min="14" max="14" width="10.75" customWidth="1"/>
-    <col min="15" max="15" width="11.875" customWidth="1"/>
-    <col min="16" max="17" width="15.25" customWidth="1"/>
-    <col min="18" max="18" width="14.125" customWidth="1"/>
-    <col min="19" max="19" width="17.5" customWidth="1"/>
-    <col min="20" max="20" width="14.125" customWidth="1"/>
-    <col min="21" max="21" width="16.5" customWidth="1"/>
-    <col min="22" max="22" width="11.875" customWidth="1"/>
-    <col min="23" max="23" width="8.625" customWidth="1"/>
-    <col min="24" max="24" width="10.75" customWidth="1"/>
-    <col min="25" max="25" width="7.625" customWidth="1"/>
-    <col min="26" max="26" width="17.5" customWidth="1"/>
-    <col min="27" max="27" width="9.625" customWidth="1"/>
+    <col min="11" max="11" width="14.109375" customWidth="1"/>
+    <col min="12" max="13" width="16.44140625" customWidth="1"/>
+    <col min="14" max="14" width="10.77734375" customWidth="1"/>
+    <col min="15" max="15" width="11.88671875" customWidth="1"/>
+    <col min="16" max="17" width="15.21875" customWidth="1"/>
+    <col min="18" max="18" width="14.109375" customWidth="1"/>
+    <col min="19" max="19" width="17.44140625" customWidth="1"/>
+    <col min="20" max="20" width="14.109375" customWidth="1"/>
+    <col min="21" max="21" width="16.44140625" customWidth="1"/>
+    <col min="22" max="22" width="11.88671875" customWidth="1"/>
+    <col min="23" max="23" width="8.6640625" customWidth="1"/>
+    <col min="24" max="24" width="10.77734375" customWidth="1"/>
+    <col min="25" max="25" width="7.6640625" customWidth="1"/>
+    <col min="26" max="26" width="17.44140625" customWidth="1"/>
+    <col min="27" max="27" width="9.6640625" customWidth="1"/>
     <col min="28" max="29" width="13" customWidth="1"/>
-    <col min="30" max="30" width="11.875" customWidth="1"/>
-    <col min="31" max="31" width="15.25" customWidth="1"/>
-    <col min="32" max="32" width="10.75" customWidth="1"/>
-    <col min="33" max="33" width="16.5" customWidth="1"/>
-    <col min="34" max="34" width="15.25" customWidth="1"/>
+    <col min="30" max="30" width="11.88671875" customWidth="1"/>
+    <col min="31" max="31" width="15.21875" customWidth="1"/>
+    <col min="32" max="32" width="10.77734375" customWidth="1"/>
+    <col min="33" max="33" width="16.44140625" customWidth="1"/>
+    <col min="34" max="34" width="15.21875" customWidth="1"/>
     <col min="35" max="35" width="22" customWidth="1"/>
-    <col min="36" max="36" width="11.875" customWidth="1"/>
-    <col min="37" max="37" width="20.875" customWidth="1"/>
-    <col min="38" max="38" width="24.25" customWidth="1"/>
-    <col min="39" max="39" width="23.125" customWidth="1"/>
+    <col min="36" max="36" width="11.88671875" customWidth="1"/>
+    <col min="37" max="37" width="20.88671875" customWidth="1"/>
+    <col min="38" max="38" width="24.21875" customWidth="1"/>
+    <col min="39" max="39" width="23.109375" customWidth="1"/>
     <col min="40" max="41" width="13" customWidth="1"/>
-    <col min="42" max="42" width="14.125" customWidth="1"/>
+    <col min="42" max="42" width="14.109375" customWidth="1"/>
     <col min="43" max="43" width="13" customWidth="1"/>
-    <col min="44" max="45" width="14.125" customWidth="1"/>
-    <col min="46" max="47" width="15.25" customWidth="1"/>
+    <col min="44" max="45" width="14.109375" customWidth="1"/>
+    <col min="46" max="47" width="15.21875" customWidth="1"/>
     <col min="48" max="49" width="13" customWidth="1"/>
-    <col min="50" max="50" width="14.125" customWidth="1"/>
-    <col min="51" max="51" width="16.5" customWidth="1"/>
-    <col min="52" max="52" width="23.125" customWidth="1"/>
-    <col min="53" max="53" width="19.75" customWidth="1"/>
-    <col min="54" max="54" width="23.125" customWidth="1"/>
-    <col min="55" max="55" width="15.25" customWidth="1"/>
-    <col min="56" max="56" width="18.625" customWidth="1"/>
-    <col min="57" max="57" width="17.5" customWidth="1"/>
-    <col min="58" max="59" width="16.5" customWidth="1"/>
-    <col min="60" max="61" width="17.5" customWidth="1"/>
-    <col min="62" max="62" width="16.5" customWidth="1"/>
-    <col min="63" max="63" width="17.5" customWidth="1"/>
-    <col min="64" max="64" width="18.625" customWidth="1"/>
-    <col min="65" max="65" width="25.5" customWidth="1"/>
-    <col min="66" max="66" width="27.625" customWidth="1"/>
-    <col min="67" max="67" width="20.875" customWidth="1"/>
-    <col min="68" max="68" width="16.5" customWidth="1"/>
-    <col min="69" max="69" width="23.125" customWidth="1"/>
-    <col min="70" max="70" width="9.625" customWidth="1"/>
-    <col min="71" max="71" width="23.125" customWidth="1"/>
-    <col min="72" max="72" width="18.625" customWidth="1"/>
-    <col min="73" max="73" width="24.25" customWidth="1"/>
-    <col min="74" max="74" width="19.75" customWidth="1"/>
-    <col min="75" max="75" width="14.125" customWidth="1"/>
-    <col min="76" max="76" width="17.5" customWidth="1"/>
-    <col min="77" max="77" width="15.25" customWidth="1"/>
-    <col min="78" max="78" width="16.5" customWidth="1"/>
-    <col min="79" max="79" width="18.625" customWidth="1"/>
-    <col min="80" max="80" width="19.75" customWidth="1"/>
-    <col min="81" max="81" width="26.5" customWidth="1"/>
-    <col min="82" max="82" width="14.125" customWidth="1"/>
+    <col min="50" max="50" width="14.109375" customWidth="1"/>
+    <col min="51" max="51" width="16.44140625" customWidth="1"/>
+    <col min="52" max="52" width="23.109375" customWidth="1"/>
+    <col min="53" max="53" width="19.77734375" customWidth="1"/>
+    <col min="54" max="54" width="23.109375" customWidth="1"/>
+    <col min="55" max="55" width="15.21875" customWidth="1"/>
+    <col min="56" max="56" width="18.6640625" customWidth="1"/>
+    <col min="57" max="57" width="17.44140625" customWidth="1"/>
+    <col min="58" max="59" width="16.44140625" customWidth="1"/>
+    <col min="60" max="61" width="17.44140625" customWidth="1"/>
+    <col min="62" max="62" width="16.44140625" customWidth="1"/>
+    <col min="63" max="63" width="17.44140625" customWidth="1"/>
+    <col min="64" max="64" width="18.6640625" customWidth="1"/>
+    <col min="65" max="65" width="25.44140625" customWidth="1"/>
+    <col min="66" max="66" width="27.6640625" customWidth="1"/>
+    <col min="67" max="67" width="20.88671875" customWidth="1"/>
+    <col min="68" max="68" width="16.44140625" customWidth="1"/>
+    <col min="69" max="69" width="23.109375" customWidth="1"/>
+    <col min="70" max="70" width="9.6640625" customWidth="1"/>
+    <col min="71" max="71" width="23.109375" customWidth="1"/>
+    <col min="72" max="72" width="18.6640625" customWidth="1"/>
+    <col min="73" max="73" width="24.21875" customWidth="1"/>
+    <col min="74" max="74" width="19.77734375" customWidth="1"/>
+    <col min="75" max="75" width="14.109375" customWidth="1"/>
+    <col min="76" max="76" width="17.44140625" customWidth="1"/>
+    <col min="77" max="77" width="15.21875" customWidth="1"/>
+    <col min="78" max="78" width="16.44140625" customWidth="1"/>
+    <col min="79" max="79" width="18.6640625" customWidth="1"/>
+    <col min="80" max="80" width="19.77734375" customWidth="1"/>
+    <col min="81" max="81" width="26.44140625" customWidth="1"/>
+    <col min="82" max="82" width="14.109375" customWidth="1"/>
     <col min="83" max="83" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1762,7 +1789,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>83</v>
       </c>
@@ -2022,7 +2049,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>83</v>
       </c>
@@ -2282,7 +2309,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>83</v>
       </c>
@@ -2542,7 +2569,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>83</v>
       </c>
@@ -2802,7 +2829,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>83</v>
       </c>
@@ -3062,7 +3089,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>83</v>
       </c>
@@ -3322,11 +3349,11 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="9" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="10" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="11" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="12" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3338,136 +3365,136 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EI14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" topLeftCell="AR1" workbookViewId="0">
+      <selection activeCell="AZ11" sqref="AZ11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.875" customWidth="1"/>
-    <col min="2" max="3" width="16.5" customWidth="1"/>
+    <col min="1" max="1" width="11.88671875" customWidth="1"/>
+    <col min="2" max="3" width="16.44140625" customWidth="1"/>
     <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="15.25" customWidth="1"/>
-    <col min="7" max="7" width="7.625" customWidth="1"/>
-    <col min="8" max="9" width="14.125" customWidth="1"/>
-    <col min="10" max="10" width="9.625" customWidth="1"/>
-    <col min="11" max="11" width="11.875" customWidth="1"/>
-    <col min="12" max="12" width="7.625" customWidth="1"/>
-    <col min="13" max="13" width="9.625" customWidth="1"/>
-    <col min="14" max="14" width="8.625" customWidth="1"/>
-    <col min="15" max="15" width="10.75" customWidth="1"/>
-    <col min="16" max="16" width="8.625" customWidth="1"/>
-    <col min="17" max="17" width="6.625" customWidth="1"/>
-    <col min="18" max="18" width="7.625" customWidth="1"/>
-    <col min="19" max="19" width="10.75" customWidth="1"/>
-    <col min="20" max="20" width="9.625" customWidth="1"/>
-    <col min="21" max="21" width="11.875" customWidth="1"/>
-    <col min="22" max="22" width="16.5" customWidth="1"/>
-    <col min="23" max="23" width="14.125" customWidth="1"/>
-    <col min="24" max="24" width="9.625" customWidth="1"/>
-    <col min="25" max="25" width="15.25" customWidth="1"/>
-    <col min="26" max="26" width="8.625" customWidth="1"/>
-    <col min="27" max="27" width="9.625" customWidth="1"/>
-    <col min="28" max="28" width="23.125" customWidth="1"/>
-    <col min="29" max="29" width="10.75" customWidth="1"/>
-    <col min="30" max="30" width="15.25" customWidth="1"/>
-    <col min="31" max="32" width="14.125" customWidth="1"/>
+    <col min="6" max="6" width="15.21875" customWidth="1"/>
+    <col min="7" max="7" width="7.6640625" customWidth="1"/>
+    <col min="8" max="9" width="14.109375" customWidth="1"/>
+    <col min="10" max="10" width="9.6640625" customWidth="1"/>
+    <col min="11" max="11" width="11.88671875" customWidth="1"/>
+    <col min="12" max="12" width="7.6640625" customWidth="1"/>
+    <col min="13" max="13" width="9.6640625" customWidth="1"/>
+    <col min="14" max="14" width="8.6640625" customWidth="1"/>
+    <col min="15" max="15" width="10.77734375" customWidth="1"/>
+    <col min="16" max="16" width="8.6640625" customWidth="1"/>
+    <col min="17" max="17" width="6.6640625" customWidth="1"/>
+    <col min="18" max="18" width="7.6640625" customWidth="1"/>
+    <col min="19" max="19" width="10.77734375" customWidth="1"/>
+    <col min="20" max="20" width="9.6640625" customWidth="1"/>
+    <col min="21" max="21" width="11.88671875" customWidth="1"/>
+    <col min="22" max="22" width="16.44140625" customWidth="1"/>
+    <col min="23" max="23" width="14.109375" customWidth="1"/>
+    <col min="24" max="24" width="9.6640625" customWidth="1"/>
+    <col min="25" max="25" width="15.21875" customWidth="1"/>
+    <col min="26" max="26" width="8.6640625" customWidth="1"/>
+    <col min="27" max="27" width="9.6640625" customWidth="1"/>
+    <col min="28" max="28" width="23.109375" customWidth="1"/>
+    <col min="29" max="29" width="10.77734375" customWidth="1"/>
+    <col min="30" max="30" width="15.21875" customWidth="1"/>
+    <col min="31" max="32" width="14.109375" customWidth="1"/>
     <col min="33" max="34" width="13" customWidth="1"/>
-    <col min="35" max="35" width="9.625" customWidth="1"/>
+    <col min="35" max="35" width="9.6640625" customWidth="1"/>
     <col min="36" max="36" width="13" customWidth="1"/>
-    <col min="37" max="37" width="10.75" customWidth="1"/>
-    <col min="38" max="38" width="14.125" customWidth="1"/>
-    <col min="39" max="39" width="11.875" customWidth="1"/>
-    <col min="40" max="41" width="9.625" customWidth="1"/>
-    <col min="42" max="43" width="14.125" customWidth="1"/>
-    <col min="44" max="44" width="9.625" customWidth="1"/>
+    <col min="37" max="37" width="10.77734375" customWidth="1"/>
+    <col min="38" max="38" width="14.109375" customWidth="1"/>
+    <col min="39" max="39" width="11.88671875" customWidth="1"/>
+    <col min="40" max="41" width="9.6640625" customWidth="1"/>
+    <col min="42" max="43" width="14.109375" customWidth="1"/>
+    <col min="44" max="44" width="9.6640625" customWidth="1"/>
     <col min="45" max="45" width="13" customWidth="1"/>
-    <col min="46" max="46" width="14.125" customWidth="1"/>
-    <col min="47" max="47" width="8.625" customWidth="1"/>
-    <col min="48" max="48" width="17.5" customWidth="1"/>
-    <col min="49" max="49" width="11.875" customWidth="1"/>
-    <col min="50" max="50" width="8.625" customWidth="1"/>
-    <col min="51" max="51" width="9.625" customWidth="1"/>
+    <col min="46" max="46" width="14.109375" customWidth="1"/>
+    <col min="47" max="47" width="8.6640625" customWidth="1"/>
+    <col min="48" max="48" width="17.44140625" customWidth="1"/>
+    <col min="49" max="49" width="11.88671875" customWidth="1"/>
+    <col min="50" max="50" width="8.6640625" customWidth="1"/>
+    <col min="51" max="51" width="9.6640625" customWidth="1"/>
     <col min="52" max="52" width="13" customWidth="1"/>
-    <col min="53" max="53" width="16.5" customWidth="1"/>
+    <col min="53" max="53" width="16.44140625" customWidth="1"/>
     <col min="54" max="55" width="13" customWidth="1"/>
-    <col min="56" max="56" width="16.5" customWidth="1"/>
-    <col min="57" max="57" width="15.25" customWidth="1"/>
-    <col min="58" max="58" width="33.25" customWidth="1"/>
-    <col min="59" max="59" width="17.5" customWidth="1"/>
-    <col min="60" max="60" width="14.125" customWidth="1"/>
-    <col min="61" max="61" width="11.875" customWidth="1"/>
-    <col min="62" max="62" width="8.625" customWidth="1"/>
-    <col min="63" max="63" width="14.125" customWidth="1"/>
-    <col min="64" max="64" width="9.625" customWidth="1"/>
-    <col min="65" max="65" width="17.5" customWidth="1"/>
-    <col min="66" max="66" width="10.75" customWidth="1"/>
-    <col min="67" max="67" width="11.875" customWidth="1"/>
+    <col min="56" max="56" width="16.44140625" customWidth="1"/>
+    <col min="57" max="57" width="15.21875" customWidth="1"/>
+    <col min="58" max="58" width="33.21875" customWidth="1"/>
+    <col min="59" max="59" width="17.44140625" customWidth="1"/>
+    <col min="60" max="60" width="14.109375" customWidth="1"/>
+    <col min="61" max="61" width="11.88671875" customWidth="1"/>
+    <col min="62" max="62" width="8.6640625" customWidth="1"/>
+    <col min="63" max="63" width="14.109375" customWidth="1"/>
+    <col min="64" max="64" width="9.6640625" customWidth="1"/>
+    <col min="65" max="65" width="17.44140625" customWidth="1"/>
+    <col min="66" max="66" width="10.77734375" customWidth="1"/>
+    <col min="67" max="67" width="11.88671875" customWidth="1"/>
     <col min="68" max="68" width="13" customWidth="1"/>
-    <col min="69" max="69" width="11.875" customWidth="1"/>
-    <col min="70" max="70" width="15.25" customWidth="1"/>
-    <col min="71" max="71" width="11.875" customWidth="1"/>
+    <col min="69" max="69" width="11.88671875" customWidth="1"/>
+    <col min="70" max="70" width="15.21875" customWidth="1"/>
+    <col min="71" max="71" width="11.88671875" customWidth="1"/>
     <col min="72" max="72" width="13" customWidth="1"/>
-    <col min="73" max="73" width="17.5" customWidth="1"/>
-    <col min="74" max="74" width="20.875" customWidth="1"/>
-    <col min="75" max="75" width="16.5" customWidth="1"/>
+    <col min="73" max="73" width="17.44140625" customWidth="1"/>
+    <col min="74" max="74" width="20.88671875" customWidth="1"/>
+    <col min="75" max="75" width="16.44140625" customWidth="1"/>
     <col min="76" max="76" width="13" customWidth="1"/>
-    <col min="77" max="77" width="11.875" customWidth="1"/>
-    <col min="78" max="78" width="10.75" customWidth="1"/>
-    <col min="79" max="79" width="11.875" customWidth="1"/>
-    <col min="80" max="81" width="7.625" customWidth="1"/>
-    <col min="82" max="83" width="17.5" customWidth="1"/>
-    <col min="84" max="84" width="16.5" customWidth="1"/>
-    <col min="85" max="85" width="11.875" customWidth="1"/>
-    <col min="86" max="86" width="14.125" customWidth="1"/>
-    <col min="87" max="87" width="16.5" customWidth="1"/>
-    <col min="88" max="88" width="10.75" customWidth="1"/>
-    <col min="89" max="89" width="11.875" customWidth="1"/>
-    <col min="90" max="90" width="19.75" customWidth="1"/>
-    <col min="91" max="91" width="16.5" customWidth="1"/>
-    <col min="92" max="92" width="23.125" customWidth="1"/>
-    <col min="93" max="93" width="7.625" customWidth="1"/>
-    <col min="94" max="94" width="18.625" customWidth="1"/>
-    <col min="95" max="95" width="10.75" customWidth="1"/>
-    <col min="96" max="96" width="14.125" customWidth="1"/>
+    <col min="77" max="77" width="11.88671875" customWidth="1"/>
+    <col min="78" max="78" width="10.77734375" customWidth="1"/>
+    <col min="79" max="79" width="11.88671875" customWidth="1"/>
+    <col min="80" max="81" width="7.6640625" customWidth="1"/>
+    <col min="82" max="83" width="17.44140625" customWidth="1"/>
+    <col min="84" max="84" width="16.44140625" customWidth="1"/>
+    <col min="85" max="85" width="11.88671875" customWidth="1"/>
+    <col min="86" max="86" width="14.109375" customWidth="1"/>
+    <col min="87" max="87" width="16.44140625" customWidth="1"/>
+    <col min="88" max="88" width="10.77734375" customWidth="1"/>
+    <col min="89" max="89" width="11.88671875" customWidth="1"/>
+    <col min="90" max="90" width="19.77734375" customWidth="1"/>
+    <col min="91" max="91" width="16.44140625" customWidth="1"/>
+    <col min="92" max="92" width="23.109375" customWidth="1"/>
+    <col min="93" max="93" width="7.6640625" customWidth="1"/>
+    <col min="94" max="94" width="18.6640625" customWidth="1"/>
+    <col min="95" max="95" width="10.77734375" customWidth="1"/>
+    <col min="96" max="96" width="14.109375" customWidth="1"/>
     <col min="97" max="97" width="13" customWidth="1"/>
-    <col min="98" max="98" width="16.5" customWidth="1"/>
+    <col min="98" max="98" width="16.44140625" customWidth="1"/>
     <col min="99" max="100" width="13" customWidth="1"/>
-    <col min="101" max="101" width="9.625" customWidth="1"/>
-    <col min="102" max="102" width="16.5" customWidth="1"/>
-    <col min="103" max="103" width="14.125" customWidth="1"/>
-    <col min="104" max="104" width="11.875" customWidth="1"/>
-    <col min="105" max="106" width="15.25" customWidth="1"/>
-    <col min="107" max="107" width="9.625" customWidth="1"/>
+    <col min="101" max="101" width="9.6640625" customWidth="1"/>
+    <col min="102" max="102" width="16.44140625" customWidth="1"/>
+    <col min="103" max="103" width="14.109375" customWidth="1"/>
+    <col min="104" max="104" width="11.88671875" customWidth="1"/>
+    <col min="105" max="106" width="15.21875" customWidth="1"/>
+    <col min="107" max="107" width="9.6640625" customWidth="1"/>
     <col min="108" max="108" width="13" customWidth="1"/>
-    <col min="109" max="109" width="9.625" customWidth="1"/>
-    <col min="110" max="110" width="15.25" customWidth="1"/>
-    <col min="111" max="111" width="17.5" customWidth="1"/>
-    <col min="112" max="112" width="14.125" customWidth="1"/>
-    <col min="113" max="113" width="19.75" customWidth="1"/>
-    <col min="114" max="114" width="16.5" customWidth="1"/>
-    <col min="115" max="115" width="20.875" customWidth="1"/>
-    <col min="116" max="116" width="24.25" customWidth="1"/>
-    <col min="117" max="117" width="16.5" customWidth="1"/>
-    <col min="118" max="118" width="17.5" customWidth="1"/>
+    <col min="109" max="109" width="9.6640625" customWidth="1"/>
+    <col min="110" max="110" width="15.21875" customWidth="1"/>
+    <col min="111" max="111" width="17.44140625" customWidth="1"/>
+    <col min="112" max="112" width="14.109375" customWidth="1"/>
+    <col min="113" max="113" width="19.77734375" customWidth="1"/>
+    <col min="114" max="114" width="16.44140625" customWidth="1"/>
+    <col min="115" max="115" width="20.88671875" customWidth="1"/>
+    <col min="116" max="116" width="24.21875" customWidth="1"/>
+    <col min="117" max="117" width="16.44140625" customWidth="1"/>
+    <col min="118" max="118" width="17.44140625" customWidth="1"/>
     <col min="119" max="119" width="22" customWidth="1"/>
-    <col min="120" max="121" width="20.875" customWidth="1"/>
-    <col min="122" max="122" width="19.75" customWidth="1"/>
-    <col min="123" max="123" width="17.5" customWidth="1"/>
-    <col min="124" max="124" width="20.875" customWidth="1"/>
-    <col min="125" max="125" width="18.625" customWidth="1"/>
-    <col min="126" max="126" width="8.625" customWidth="1"/>
-    <col min="127" max="127" width="15.25" customWidth="1"/>
+    <col min="120" max="121" width="20.88671875" customWidth="1"/>
+    <col min="122" max="122" width="19.77734375" customWidth="1"/>
+    <col min="123" max="123" width="17.44140625" customWidth="1"/>
+    <col min="124" max="124" width="20.88671875" customWidth="1"/>
+    <col min="125" max="125" width="18.6640625" customWidth="1"/>
+    <col min="126" max="126" width="8.6640625" customWidth="1"/>
+    <col min="127" max="127" width="15.21875" customWidth="1"/>
     <col min="128" max="128" width="13" customWidth="1"/>
-    <col min="129" max="129" width="14.125" customWidth="1"/>
-    <col min="130" max="130" width="10.75" customWidth="1"/>
-    <col min="131" max="131" width="11.875" customWidth="1"/>
-    <col min="132" max="132" width="15.25" customWidth="1"/>
-    <col min="133" max="133" width="16.5" customWidth="1"/>
+    <col min="129" max="129" width="14.109375" customWidth="1"/>
+    <col min="130" max="130" width="10.77734375" customWidth="1"/>
+    <col min="131" max="131" width="11.88671875" customWidth="1"/>
+    <col min="132" max="132" width="15.21875" customWidth="1"/>
+    <col min="133" max="133" width="16.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>106</v>
       </c>
@@ -3886,9 +3913,9 @@
         <v>325</v>
       </c>
     </row>
-    <row r="2" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>252</v>
@@ -3897,16 +3924,16 @@
         <v>91</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>83</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>84</v>
@@ -3951,7 +3978,7 @@
         <v>253</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="Y2" s="1" t="s">
         <v>254</v>
@@ -3960,7 +3987,7 @@
         <v>254</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AB2" s="1" t="s">
         <v>250</v>
@@ -4008,7 +4035,7 @@
         <v>236</v>
       </c>
       <c r="AQ2" s="1" t="s">
-        <v>326</v>
+        <v>350</v>
       </c>
       <c r="AR2" s="1" t="s">
         <v>84</v>
@@ -4031,8 +4058,8 @@
       <c r="AY2" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="AZ2" s="1" t="s">
-        <v>232</v>
+      <c r="AZ2" s="2" t="s">
+        <v>351</v>
       </c>
       <c r="BA2" s="1" t="s">
         <v>83</v>
@@ -4095,31 +4122,31 @@
         <v>240</v>
       </c>
       <c r="BZ2" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="CA2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="CB2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="CD2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="CE2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="CG2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CH2" s="1" t="s">
         <v>332</v>
-      </c>
-      <c r="CA2" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="CB2" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="CD2" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="CE2" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="CG2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="CH2" s="1" t="s">
-        <v>333</v>
       </c>
       <c r="CJ2" s="1" t="s">
         <v>231</v>
       </c>
       <c r="CK2" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="CL2" s="1" t="s">
         <v>95</v>
@@ -4218,9 +4245,9 @@
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>247</v>
@@ -4229,16 +4256,16 @@
         <v>91</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>83</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>84</v>
@@ -4283,16 +4310,16 @@
         <v>89</v>
       </c>
       <c r="X3" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA3" s="1" t="s">
         <v>330</v>
-      </c>
-      <c r="Y3" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="Z3" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="AA3" s="1" t="s">
-        <v>331</v>
       </c>
       <c r="AB3" s="1" t="s">
         <v>250</v>
@@ -4340,7 +4367,7 @@
         <v>236</v>
       </c>
       <c r="AQ3" s="1" t="s">
-        <v>326</v>
+        <v>350</v>
       </c>
       <c r="AR3" s="1" t="s">
         <v>84</v>
@@ -4363,8 +4390,8 @@
       <c r="AY3" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="AZ3" s="1" t="s">
-        <v>232</v>
+      <c r="AZ3" s="2" t="s">
+        <v>351</v>
       </c>
       <c r="BA3" s="1" t="s">
         <v>83</v>
@@ -4427,7 +4454,7 @@
         <v>240</v>
       </c>
       <c r="BZ3" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="CA3" s="1" t="s">
         <v>90</v>
@@ -4445,13 +4472,13 @@
         <v>83</v>
       </c>
       <c r="CH3" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="CJ3" s="1" t="s">
         <v>231</v>
       </c>
       <c r="CK3" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="CL3" s="1" t="s">
         <v>95</v>
@@ -4550,9 +4577,9 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>230</v>
@@ -4561,16 +4588,16 @@
         <v>91</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>83</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>84</v>
@@ -4615,16 +4642,16 @@
         <v>89</v>
       </c>
       <c r="X4" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA4" s="1" t="s">
         <v>330</v>
-      </c>
-      <c r="Y4" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="Z4" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="AA4" s="1" t="s">
-        <v>331</v>
       </c>
       <c r="AB4" s="1" t="s">
         <v>234</v>
@@ -4672,7 +4699,7 @@
         <v>236</v>
       </c>
       <c r="AQ4" s="1" t="s">
-        <v>326</v>
+        <v>350</v>
       </c>
       <c r="AR4" s="1" t="s">
         <v>84</v>
@@ -4695,8 +4722,8 @@
       <c r="AY4" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="AZ4" s="1" t="s">
-        <v>232</v>
+      <c r="AZ4" s="2" t="s">
+        <v>351</v>
       </c>
       <c r="BA4" s="1" t="s">
         <v>83</v>
@@ -4759,7 +4786,7 @@
         <v>240</v>
       </c>
       <c r="BZ4" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="CA4" s="1" t="s">
         <v>90</v>
@@ -4777,13 +4804,13 @@
         <v>83</v>
       </c>
       <c r="CH4" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="CJ4" s="1" t="s">
         <v>231</v>
       </c>
       <c r="CK4" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="CL4" s="1" t="s">
         <v>95</v>
@@ -4882,9 +4909,9 @@
         <v>95</v>
       </c>
     </row>
-    <row r="5" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>252</v>
@@ -4893,16 +4920,16 @@
         <v>91</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>83</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>84</v>
@@ -4947,7 +4974,7 @@
         <v>253</v>
       </c>
       <c r="X5" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="Y5" s="1" t="s">
         <v>254</v>
@@ -4956,7 +4983,7 @@
         <v>254</v>
       </c>
       <c r="AA5" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AB5" s="1" t="s">
         <v>250</v>
@@ -5004,7 +5031,7 @@
         <v>236</v>
       </c>
       <c r="AQ5" s="1" t="s">
-        <v>326</v>
+        <v>350</v>
       </c>
       <c r="AR5" s="1" t="s">
         <v>84</v>
@@ -5027,8 +5054,8 @@
       <c r="AY5" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="AZ5" s="1" t="s">
-        <v>232</v>
+      <c r="AZ5" s="2" t="s">
+        <v>351</v>
       </c>
       <c r="BA5" s="1" t="s">
         <v>83</v>
@@ -5091,7 +5118,7 @@
         <v>240</v>
       </c>
       <c r="BZ5" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="CA5" s="1" t="s">
         <v>90</v>
@@ -5109,13 +5136,13 @@
         <v>83</v>
       </c>
       <c r="CH5" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="CJ5" s="1" t="s">
         <v>231</v>
       </c>
       <c r="CK5" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="CL5" s="1" t="s">
         <v>95</v>
@@ -5214,9 +5241,9 @@
         <v>95</v>
       </c>
     </row>
-    <row r="6" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>247</v>
@@ -5225,16 +5252,16 @@
         <v>91</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>83</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>84</v>
@@ -5279,7 +5306,7 @@
         <v>89</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="Y6" s="1" t="s">
         <v>90</v>
@@ -5288,7 +5315,7 @@
         <v>90</v>
       </c>
       <c r="AA6" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AB6" s="1" t="s">
         <v>250</v>
@@ -5336,7 +5363,7 @@
         <v>236</v>
       </c>
       <c r="AQ6" s="1" t="s">
-        <v>326</v>
+        <v>350</v>
       </c>
       <c r="AR6" s="1" t="s">
         <v>84</v>
@@ -5359,8 +5386,8 @@
       <c r="AY6" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="AZ6" s="1" t="s">
-        <v>232</v>
+      <c r="AZ6" s="2" t="s">
+        <v>351</v>
       </c>
       <c r="BA6" s="1" t="s">
         <v>83</v>
@@ -5423,7 +5450,7 @@
         <v>240</v>
       </c>
       <c r="BZ6" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="CA6" s="1" t="s">
         <v>90</v>
@@ -5441,13 +5468,13 @@
         <v>83</v>
       </c>
       <c r="CH6" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="CJ6" s="1" t="s">
         <v>231</v>
       </c>
       <c r="CK6" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="CL6" s="1" t="s">
         <v>95</v>
@@ -5546,9 +5573,9 @@
         <v>95</v>
       </c>
     </row>
-    <row r="7" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>230</v>
@@ -5557,16 +5584,16 @@
         <v>91</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>83</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>84</v>
@@ -5611,7 +5638,7 @@
         <v>89</v>
       </c>
       <c r="X7" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="Y7" s="1" t="s">
         <v>90</v>
@@ -5620,7 +5647,7 @@
         <v>90</v>
       </c>
       <c r="AA7" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AB7" s="1" t="s">
         <v>234</v>
@@ -5668,7 +5695,7 @@
         <v>236</v>
       </c>
       <c r="AQ7" s="1" t="s">
-        <v>326</v>
+        <v>350</v>
       </c>
       <c r="AR7" s="1" t="s">
         <v>84</v>
@@ -5691,8 +5718,8 @@
       <c r="AY7" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="AZ7" s="1" t="s">
-        <v>232</v>
+      <c r="AZ7" s="2" t="s">
+        <v>351</v>
       </c>
       <c r="BA7" s="1" t="s">
         <v>83</v>
@@ -5755,7 +5782,7 @@
         <v>240</v>
       </c>
       <c r="BZ7" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="CA7" s="1" t="s">
         <v>90</v>
@@ -5773,13 +5800,13 @@
         <v>83</v>
       </c>
       <c r="CH7" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="CJ7" s="1" t="s">
         <v>231</v>
       </c>
       <c r="CK7" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="CL7" s="1" t="s">
         <v>95</v>
@@ -5878,9 +5905,9 @@
         <v>95</v>
       </c>
     </row>
-    <row r="8" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>247</v>
@@ -5889,16 +5916,16 @@
         <v>91</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>83</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>99</v>
@@ -5943,7 +5970,7 @@
         <v>89</v>
       </c>
       <c r="X8" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="Y8" s="1" t="s">
         <v>90</v>
@@ -5952,7 +5979,7 @@
         <v>90</v>
       </c>
       <c r="AA8" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AB8" s="1" t="s">
         <v>248</v>
@@ -6000,7 +6027,7 @@
         <v>236</v>
       </c>
       <c r="AQ8" s="1" t="s">
-        <v>326</v>
+        <v>350</v>
       </c>
       <c r="AR8" s="1" t="s">
         <v>99</v>
@@ -6023,8 +6050,8 @@
       <c r="AY8" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="AZ8" s="1" t="s">
-        <v>232</v>
+      <c r="AZ8" s="2" t="s">
+        <v>351</v>
       </c>
       <c r="BA8" s="1" t="s">
         <v>83</v>
@@ -6087,7 +6114,7 @@
         <v>240</v>
       </c>
       <c r="BZ8" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="CA8" s="1" t="s">
         <v>90</v>
@@ -6105,13 +6132,13 @@
         <v>83</v>
       </c>
       <c r="CH8" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="CJ8" s="1" t="s">
         <v>231</v>
       </c>
       <c r="CK8" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="CL8" s="1" t="s">
         <v>95</v>
@@ -6210,9 +6237,9 @@
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>247</v>
@@ -6221,16 +6248,16 @@
         <v>91</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>83</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>99</v>
@@ -6275,7 +6302,7 @@
         <v>89</v>
       </c>
       <c r="X9" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="Y9" s="1" t="s">
         <v>90</v>
@@ -6284,7 +6311,7 @@
         <v>90</v>
       </c>
       <c r="AA9" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AB9" s="1" t="s">
         <v>248</v>
@@ -6332,7 +6359,7 @@
         <v>236</v>
       </c>
       <c r="AQ9" s="1" t="s">
-        <v>326</v>
+        <v>350</v>
       </c>
       <c r="AR9" s="1" t="s">
         <v>99</v>
@@ -6355,8 +6382,8 @@
       <c r="AY9" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="AZ9" s="1" t="s">
-        <v>232</v>
+      <c r="AZ9" s="2" t="s">
+        <v>351</v>
       </c>
       <c r="BA9" s="1" t="s">
         <v>83</v>
@@ -6419,7 +6446,7 @@
         <v>240</v>
       </c>
       <c r="BZ9" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="CA9" s="1" t="s">
         <v>90</v>
@@ -6437,13 +6464,13 @@
         <v>83</v>
       </c>
       <c r="CH9" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="CJ9" s="1" t="s">
         <v>231</v>
       </c>
       <c r="CK9" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="CL9" s="1" t="s">
         <v>95</v>
@@ -6542,11 +6569,11 @@
         <v>95</v>
       </c>
     </row>
-    <row r="10" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="11" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="12" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="13" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <autoFilter ref="A1:EC9"/>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6563,68 +6590,68 @@
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="16.5" customWidth="1"/>
-    <col min="3" max="3" width="7.625" customWidth="1"/>
-    <col min="4" max="4" width="11.875" customWidth="1"/>
-    <col min="5" max="5" width="8.625" customWidth="1"/>
+    <col min="1" max="2" width="16.44140625" customWidth="1"/>
+    <col min="3" max="3" width="7.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="7.625" customWidth="1"/>
-    <col min="8" max="8" width="10.75" customWidth="1"/>
-    <col min="9" max="9" width="9.625" customWidth="1"/>
-    <col min="10" max="10" width="7.625" customWidth="1"/>
-    <col min="11" max="11" width="9.625" customWidth="1"/>
-    <col min="12" max="13" width="11.875" customWidth="1"/>
-    <col min="14" max="14" width="10.75" customWidth="1"/>
-    <col min="15" max="15" width="9.625" customWidth="1"/>
+    <col min="7" max="7" width="7.6640625" customWidth="1"/>
+    <col min="8" max="8" width="10.77734375" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" customWidth="1"/>
+    <col min="10" max="10" width="7.6640625" customWidth="1"/>
+    <col min="11" max="11" width="9.6640625" customWidth="1"/>
+    <col min="12" max="13" width="11.88671875" customWidth="1"/>
+    <col min="14" max="14" width="10.77734375" customWidth="1"/>
+    <col min="15" max="15" width="9.6640625" customWidth="1"/>
     <col min="16" max="16" width="13" customWidth="1"/>
-    <col min="17" max="17" width="23.125" customWidth="1"/>
+    <col min="17" max="17" width="23.109375" customWidth="1"/>
     <col min="18" max="18" width="13" customWidth="1"/>
-    <col min="19" max="19" width="10.75" customWidth="1"/>
-    <col min="20" max="20" width="14.125" customWidth="1"/>
-    <col min="21" max="21" width="7.625" customWidth="1"/>
-    <col min="22" max="23" width="11.875" customWidth="1"/>
-    <col min="24" max="24" width="10.75" customWidth="1"/>
-    <col min="25" max="25" width="11.875" customWidth="1"/>
-    <col min="26" max="26" width="16.5" customWidth="1"/>
-    <col min="27" max="27" width="9.625" customWidth="1"/>
+    <col min="19" max="19" width="10.77734375" customWidth="1"/>
+    <col min="20" max="20" width="14.109375" customWidth="1"/>
+    <col min="21" max="21" width="7.6640625" customWidth="1"/>
+    <col min="22" max="23" width="11.88671875" customWidth="1"/>
+    <col min="24" max="24" width="10.77734375" customWidth="1"/>
+    <col min="25" max="25" width="11.88671875" customWidth="1"/>
+    <col min="26" max="26" width="16.44140625" customWidth="1"/>
+    <col min="27" max="27" width="9.6640625" customWidth="1"/>
     <col min="28" max="28" width="13" customWidth="1"/>
-    <col min="29" max="29" width="8.625" customWidth="1"/>
-    <col min="30" max="30" width="11.875" customWidth="1"/>
-    <col min="31" max="31" width="14.125" customWidth="1"/>
-    <col min="32" max="32" width="7.625" customWidth="1"/>
-    <col min="33" max="33" width="9.625" customWidth="1"/>
+    <col min="29" max="29" width="8.6640625" customWidth="1"/>
+    <col min="30" max="30" width="11.88671875" customWidth="1"/>
+    <col min="31" max="31" width="14.109375" customWidth="1"/>
+    <col min="32" max="32" width="7.6640625" customWidth="1"/>
+    <col min="33" max="33" width="9.6640625" customWidth="1"/>
     <col min="34" max="34" width="13" customWidth="1"/>
-    <col min="35" max="35" width="14.125" customWidth="1"/>
-    <col min="36" max="39" width="10.75" customWidth="1"/>
-    <col min="40" max="40" width="11.875" customWidth="1"/>
-    <col min="41" max="41" width="16.5" customWidth="1"/>
-    <col min="42" max="43" width="11.875" customWidth="1"/>
-    <col min="44" max="44" width="14.125" customWidth="1"/>
-    <col min="45" max="45" width="16.5" customWidth="1"/>
-    <col min="46" max="46" width="14.125" customWidth="1"/>
-    <col min="47" max="47" width="23.125" customWidth="1"/>
-    <col min="48" max="48" width="11.875" customWidth="1"/>
-    <col min="49" max="49" width="5.625" customWidth="1"/>
-    <col min="50" max="50" width="6.625" customWidth="1"/>
-    <col min="51" max="52" width="14.125" customWidth="1"/>
-    <col min="53" max="53" width="8.625" customWidth="1"/>
-    <col min="54" max="54" width="15.25" customWidth="1"/>
-    <col min="55" max="55" width="14.125" customWidth="1"/>
-    <col min="56" max="56" width="20.875" customWidth="1"/>
+    <col min="35" max="35" width="14.109375" customWidth="1"/>
+    <col min="36" max="39" width="10.77734375" customWidth="1"/>
+    <col min="40" max="40" width="11.88671875" customWidth="1"/>
+    <col min="41" max="41" width="16.44140625" customWidth="1"/>
+    <col min="42" max="43" width="11.88671875" customWidth="1"/>
+    <col min="44" max="44" width="14.109375" customWidth="1"/>
+    <col min="45" max="45" width="16.44140625" customWidth="1"/>
+    <col min="46" max="46" width="14.109375" customWidth="1"/>
+    <col min="47" max="47" width="23.109375" customWidth="1"/>
+    <col min="48" max="48" width="11.88671875" customWidth="1"/>
+    <col min="49" max="49" width="5.6640625" customWidth="1"/>
+    <col min="50" max="50" width="6.6640625" customWidth="1"/>
+    <col min="51" max="52" width="14.109375" customWidth="1"/>
+    <col min="53" max="53" width="8.6640625" customWidth="1"/>
+    <col min="54" max="54" width="15.21875" customWidth="1"/>
+    <col min="55" max="55" width="14.109375" customWidth="1"/>
+    <col min="56" max="56" width="20.88671875" customWidth="1"/>
     <col min="57" max="57" width="13" customWidth="1"/>
-    <col min="58" max="58" width="14.125" customWidth="1"/>
-    <col min="59" max="59" width="15.25" customWidth="1"/>
-    <col min="60" max="60" width="10.75" customWidth="1"/>
-    <col min="61" max="61" width="5.625" customWidth="1"/>
-    <col min="62" max="62" width="10.75" customWidth="1"/>
-    <col min="63" max="63" width="9.625" customWidth="1"/>
-    <col min="64" max="64" width="11.875" customWidth="1"/>
+    <col min="58" max="58" width="14.109375" customWidth="1"/>
+    <col min="59" max="59" width="15.21875" customWidth="1"/>
+    <col min="60" max="60" width="10.77734375" customWidth="1"/>
+    <col min="61" max="61" width="5.6640625" customWidth="1"/>
+    <col min="62" max="62" width="10.77734375" customWidth="1"/>
+    <col min="63" max="63" width="9.6640625" customWidth="1"/>
+    <col min="64" max="64" width="11.88671875" customWidth="1"/>
     <col min="65" max="65" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:65" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:65" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>108</v>
       </c>
@@ -6821,7 +6848,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="2" spans="1:65" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:65" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>290</v>
       </c>
@@ -6979,7 +7006,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="3" spans="1:65" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:65" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>290</v>
       </c>
@@ -7137,7 +7164,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="4" spans="1:65" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:65" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>290</v>
       </c>
@@ -7298,7 +7325,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="5" spans="1:65" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:65" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>290</v>
       </c>
@@ -7456,7 +7483,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:65" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:65" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>290</v>
       </c>
@@ -7614,7 +7641,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="7" spans="1:65" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:65" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>290</v>
       </c>
@@ -7772,7 +7799,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="8" spans="1:65" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:65" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>290</v>
       </c>
@@ -7933,7 +7960,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="9" spans="1:65" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:65" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>290</v>
       </c>
@@ -8091,7 +8118,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="1:65" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:65" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <autoFilter ref="A1:BM9"/>
   <phoneticPr fontId="1" type="noConversion"/>
